--- a/kidase-presentation/samples/Kidase Presentation Template.xlsx
+++ b/kidase-presentation/samples/Kidase Presentation Template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="116">
   <si>
     <t>LineId</t>
   </si>
@@ -72,6 +72,9 @@
     <t>LayoutOverride</t>
   </si>
   <si>
+    <t>DisplayRule</t>
+  </si>
+  <si>
     <t>ይ፡ካ</t>
   </si>
   <si>
@@ -114,6 +117,36 @@
     <t>Amen</t>
   </si>
   <si>
+    <t>እምነ በሐ፣ ቅድስት ቤተክርስቲያን፣ ሥርጉት አረፋቲሃ በዕንቍ ጳዝዮን፤እምነ በሐ፣ ቅድስት ቤተክርስቲያን።</t>
+  </si>
+  <si>
+    <t>ሰላም ላንቺ ይሁን፤ እናታችን ክብርት ቤተክርስቲያን። ግድግዳዎችሽ በጳዝዮን እንቍ የተጌጡ ናቸው፤ሰላም ላንቺ ይሁን! እናታችን ክብርት ቤተክርስቲያን።</t>
+  </si>
+  <si>
+    <t>ሰላም ነዓኺ ይኹን ኣዴና ቅድስት ቤተ ክርስቲያን፡ መናድቕኪ ብዕንቊ ጳዝዮን ዝተሠርገወ፡ ሰላም ነዓኺ ይኹን ኣዴና ቅድስት ቤተ ክርስቲያን።</t>
+  </si>
+  <si>
+    <t>Peace be unto you, our mother, O honorable church. Thy walls are embroidered with Topaz. Peace be unto, our mother, O honorable church</t>
+  </si>
+  <si>
+    <t>{"meta.dayOfWeek": {"$in": ["Mon","Tue","Thu"]}}</t>
+  </si>
+  <si>
+    <t>መስቀል አብርሃ! በከዋክብት አሠርገወ ሰማየ፤ እምኩሉሰ ፀሐይ አርአየ።መስቀል አብርሃ! በከዋክብት አሠርገወ ሰማየ።</t>
+  </si>
+  <si>
+    <t>መስቀልን አበራ! በኮከቦች ሰማይን አስጌጠ። ከሁሉም ፀሐይን አሳየ።መስቀል አበራ። በኮከቦች ሰማይን አስጌጠ።</t>
+  </si>
+  <si>
+    <t>መስቀል ኣብርሀ፡ ብከዋኽብቲ ሰማይ ኣሠርገወ፡ ካብ ኩሉ ድማ ፀሓይ ኣርኣየ። መስቀል ኣብርሀ፡ ብከዋኽብቲ ሰማይ ኣሠርገወ።</t>
+  </si>
+  <si>
+    <t>The cross shined  and had the heavens embroidered with stars. Of all the sun is seen. The cross shined and had the heavens embroidered with stars.</t>
+  </si>
+  <si>
+    <t>{"meta.dayOfWeek": {"$in": ["Wed","Fri","Sat"]}}</t>
+  </si>
+  <si>
     <t>ኵሉ፡ ዘገብራ፡ ለጽድቅ፡ ጻድቀ፡ ውእቱ፡ ወዘያከብር፡ ሰንበተ። ኢይበል ፡ ፈላሲ፡ ዘገብአ፡ ኀበ፡ እግዚአብሔር፡</t>
   </si>
   <si>
@@ -124,6 +157,9 @@
   </si>
   <si>
     <t>Blessed is he who does blessed deeds and honors the Sabbath. Let him not question whether he will be outcast from the multitudes</t>
+  </si>
+  <si>
+    <t>{"meta.dayOfWeek": {"$in": ["Sun"]}}</t>
   </si>
   <si>
     <t>ይፈልጠኒኑ፡ እምሕዝቡ። ኵሉ፡ ዘገብራ፡ ለጽድቅ፡ ጻድቅ፡ ውእቱ፡ ወዘያከብር፡ ሰንበተ።</t>
@@ -608,7 +644,8 @@
     <col customWidth="1" min="9" max="9" width="41.29"/>
     <col customWidth="1" min="10" max="18" width="20.14"/>
     <col customWidth="1" min="19" max="19" width="14.29"/>
-    <col customWidth="1" min="20" max="34" width="8.71"/>
+    <col customWidth="1" min="20" max="20" width="49.14"/>
+    <col customWidth="1" min="21" max="34" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -669,528 +706,562 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="F26" s="4"/>
@@ -6975,6 +7046,18 @@
       <c r="G989" s="4"/>
       <c r="H989" s="4"/>
       <c r="I989" s="4"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="F990" s="4"/>
+      <c r="G990" s="4"/>
+      <c r="H990" s="4"/>
+      <c r="I990" s="4"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="F991" s="4"/>
+      <c r="G991" s="4"/>
+      <c r="H991" s="4"/>
+      <c r="I991" s="4"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -7003,48 +7086,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -8052,26 +8135,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/kidase-presentation/samples/Kidase Presentation Template.xlsx
+++ b/kidase-presentation/samples/Kidase Presentation Template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
   <si>
     <t>LineId</t>
   </si>
@@ -208,6 +208,25 @@
   </si>
   <si>
     <t>and disdained to stand before the heavenly King, the King of Body and Spirit. This, the Apostles have taught us in their cannons.</t>
+  </si>
+  <si>
+    <t>ሃሌ ሉያ ዮሴፍ ወኒቆዲሞስ ገነዝዎ ለኢየሱስ በሰንዱናት ለዘተንሥአ እሙታን በመንክር ኪን።(፫ ጊዜ)</t>
+  </si>
+  <si>
+    <t>ሃሌ ሉያ ዮሴፍና ኒቆዲሞስ ድንቅ በሚኾን ጥበብ ከሙታን ተለይቶ የተነሣ ኢየሱስን በበፍታ ገነዙት ።</t>
+  </si>
+  <si>
+    <t>ሃሌ ሉያ ዮሴፍን ኒቆዲሞስን ነዚ ብዘደንቕ ጥበብ ካብ ሙታን ዝተንሥአ ኢየሱስ ብበፍታ ገነዝዎ።</t>
+  </si>
+  <si>
+    <t>Halleluia, Joseph and Nicodemus wrapped with linen cloths Jesus who rose from the dead in wondrous fashion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "meta.date": {
+      "$between": ["$ref:meta.holidays.fasika", "$ref:meta.holidays.paraclete"]
+    }
+  }</t>
   </si>
   <si>
     <t>አንቲ ውእቱ መሶበ ወርቅ ንጹሕ እንተ ውስቴታ መና ኅቡዕ ኅብሰት ዘወረደ እምሰማያት ወሀቤ ሕይወት ለኩሉ ዓለም</t>
@@ -831,6 +850,9 @@
       <c r="I7" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="T7" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="3" t="s">
@@ -881,6 +903,9 @@
       </c>
     </row>
     <row r="11">
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
@@ -888,86 +913,72 @@
         <v>66</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="F12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13">
       <c r="F13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="2" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>30</v>
@@ -989,16 +1000,16 @@
         <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>30</v>
@@ -1020,16 +1031,16 @@
         <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>30</v>
@@ -1051,16 +1062,16 @@
         <v>20</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>30</v>
@@ -1082,16 +1093,16 @@
         <v>20</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>30</v>
@@ -1113,16 +1124,16 @@
         <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>30</v>
@@ -1144,16 +1155,16 @@
         <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>30</v>
@@ -1175,16 +1186,16 @@
         <v>20</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>30</v>
@@ -1206,16 +1217,16 @@
         <v>20</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>30</v>
@@ -1237,16 +1248,16 @@
         <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>30</v>
@@ -1263,11 +1274,36 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+    <row r="25">
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="F27" s="4"/>
@@ -7058,6 +7094,12 @@
       <c r="G991" s="4"/>
       <c r="H991" s="4"/>
       <c r="I991" s="4"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="F992" s="4"/>
+      <c r="G992" s="4"/>
+      <c r="H992" s="4"/>
+      <c r="I992" s="4"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -7086,48 +7128,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -8135,26 +8177,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/kidase-presentation/samples/Kidase Presentation Template.xlsx
+++ b/kidase-presentation/samples/Kidase Presentation Template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="146">
   <si>
     <t>LineId</t>
   </si>
@@ -322,6 +322,33 @@
     <t>And blessed be the Holy Spirit, the Paraclete, the comforter and cleanser of us all.</t>
   </si>
   <si>
+    <t>ቅድመ ምንባብ</t>
+  </si>
+  <si>
+    <t>ጸሎቱ ወበረከቱ የሀሉ ምስለ ርእሰ ሊቀ ጳጳስት @PATRIARCH_NAME ወብፁዕ ሊቀ ጳጳስ @ARCHBISHOP_NAME</t>
+  </si>
+  <si>
+    <t>ጸሎቱና በረከቱ ከጳጳሳቱ አለቃ ከ@PATRIARCH_NAME ፤ ከብፁዕ ሊቀ ጳጳስ @ARCHBISHOP_NAME፤</t>
+  </si>
+  <si>
+    <t>ሎቱ ወበረኸቱ ምስ ኣርእስቲ ሊቃነ ጳጳሳትነ @PATRIARCH_NAME ፤ ወሊቃነ ጳጳሳቲነ @ARCHBISHOP_NAME ፤</t>
+  </si>
+  <si>
+    <t>May his prayer and blessing be with our Patriarch @PATRIARCH_NAME. Archbishop @ARCHBISHOP_NAME,</t>
+  </si>
+  <si>
+    <t>ወምስለ ሃገርነ @COUNTRY_NAME ወምስለ ደብርነ @CHURCH_NAME፤ ወምስለ ኩልነ ሕዝበ ክርስቲያን፤ ለዓለመ ዓለም አሜን</t>
+  </si>
+  <si>
+    <t>ከሃገራችን @COUNTRY_NAME ፤ከደብራችን @CHURCH_NAMEና ከሕዝበ ክርስቲያኑ ጋር ይኑር፤ ለዘለዓለሙ አሜን።</t>
+  </si>
+  <si>
+    <t>ምስ ሃገርነ @COUNTRY_NAME፤ ምስ  ደብርነ @CHURCH_NAME ፤ ምስ ኩልና ሕዝበ ክርስቲያን ይኹን፤ ለዓለመ ዓለም አሜን ።</t>
+  </si>
+  <si>
+    <t xml:space="preserve">our country @COUNTRY_NAME, with our church @CHURCH_NAME ,and with all christen people ,world without end. Amen. </t>
+  </si>
+  <si>
     <t>PresentationName</t>
   </si>
   <si>
@@ -367,19 +394,67 @@
     <t>VariableName</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>PRIEST_NAME</t>
-  </si>
-  <si>
-    <t>Abba Yohannes</t>
+    <t>Variable_Lang1</t>
+  </si>
+  <si>
+    <t>Variable_Lang2</t>
+  </si>
+  <si>
+    <t>Variable_Lang3</t>
+  </si>
+  <si>
+    <t>Variable_Lang4</t>
   </si>
   <si>
     <t>CHURCH_NAME</t>
   </si>
   <si>
-    <t>St Gabriel Church</t>
+    <t>ደብረ ሰላም</t>
+  </si>
+  <si>
+    <t>Debre Selam</t>
+  </si>
+  <si>
+    <t>COUNTRY_NAME</t>
+  </si>
+  <si>
+    <t>ኢትዮጲያ ኤርትራ፤ ሩዋንዳ</t>
+  </si>
+  <si>
+    <t>ኢትዮጲያ ኤርትራ፤ሩዋንዳ</t>
+  </si>
+  <si>
+    <t>Ethiopia Eritrea, Rwanda</t>
+  </si>
+  <si>
+    <t>PATRIARCH_NAME</t>
+  </si>
+  <si>
+    <t>አባ ማትያስ አባ ባስልዮስ</t>
+  </si>
+  <si>
+    <t>አባ ማትያስና አባ ባስልዮስ</t>
+  </si>
+  <si>
+    <t>ኣባ ማትያስ ወ ኣባ ባስልዮስ</t>
+  </si>
+  <si>
+    <t>Abba Matthias, Abba Basileios(Basil)</t>
+  </si>
+  <si>
+    <t>ARCHBISHOP_NAME</t>
+  </si>
+  <si>
+    <t>አባ ማቴዎስ አባ ሉቃስ</t>
+  </si>
+  <si>
+    <t>አባ ማቴዎስ እና አባ ሉቃስ</t>
+  </si>
+  <si>
+    <t>አባ ማቴዎስ ወአባ ሉቃስ</t>
+  </si>
+  <si>
+    <t>Abba Matthew, Abba Loukas(Luke)</t>
   </si>
 </sst>
 </file>
@@ -1305,17 +1380,38 @@
         <v>33</v>
       </c>
     </row>
+    <row r="26">
+      <c r="F26" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="F27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="F28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="F29" s="4"/>
@@ -7128,48 +7224,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -8170,33 +8266,97 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
+    <col customWidth="1" min="1" max="1" width="21.14"/>
     <col customWidth="1" min="2" max="2" width="22.57"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="24.14"/>
+    <col customWidth="1" min="4" max="4" width="23.71"/>
+    <col customWidth="1" min="5" max="5" width="32.0"/>
+    <col customWidth="1" min="6" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>119</v>
+      <c r="A3" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>133</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/kidase-presentation/samples/Kidase Presentation Template.xlsx
+++ b/kidase-presentation/samples/Kidase Presentation Template.xlsx
@@ -6,14 +6,40 @@
     <sheet state="visible" name="Slides" sheetId="1" r:id="rId5"/>
     <sheet state="visible" name="Metadata" sheetId="2" r:id="rId6"/>
     <sheet state="visible" name="Variables" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="Gitsawe" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="F4">
+      <text>
+        <t xml:space="preserve">To be checked</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F7">
+      <text>
+        <t xml:space="preserve">To be checked</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F10">
+      <text>
+        <t xml:space="preserve">To be checked</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="202">
   <si>
     <t>LineId</t>
   </si>
@@ -455,6 +481,174 @@
   </si>
   <si>
     <t>Abba Matthew, Abba Loukas(Luke)</t>
+  </si>
+  <si>
+    <t>Message_StPaul</t>
+  </si>
+  <si>
+    <t>Message_Apostle</t>
+  </si>
+  <si>
+    <t>Message_BookOfActs</t>
+  </si>
+  <si>
+    <t>Misbak</t>
+  </si>
+  <si>
+    <t>Wengel</t>
+  </si>
+  <si>
+    <t>KidaseType</t>
+  </si>
+  <si>
+    <t>Evangelist</t>
+  </si>
+  <si>
+    <t>Message_Apostle_Evangelist</t>
+  </si>
+  <si>
+    <t>GitsaweType</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>SelectionRule</t>
+  </si>
+  <si>
+    <t>ዘወ1</t>
+  </si>
+  <si>
+    <t>ቆሮ 2 ም 6 ቁ 1-11</t>
+  </si>
+  <si>
+    <t>ያዕቆብ ም 5 ቁ 8-13</t>
+  </si>
+  <si>
+    <t>ግብ ሐዋ ም 5 ቁ 12-17</t>
+  </si>
+  <si>
+    <t>መዝ 141 ቁ 7</t>
+  </si>
+  <si>
+    <t>ማቴዎስ ም 11 ቁ 1-8</t>
+  </si>
+  <si>
+    <t>ዘሐዋርያት</t>
+  </si>
+  <si>
+    <t>ማቴዎስ</t>
+  </si>
+  <si>
+    <t>ያዕቆብ</t>
+  </si>
+  <si>
+    <t>ዘወትር</t>
+  </si>
+  <si>
+    <t>{"meta.ethMonthDay": {"$eq": "01-01"}}</t>
+  </si>
+  <si>
+    <t>ዘወ2</t>
+  </si>
+  <si>
+    <t>ጢሞ 1 ም 5 ቁ 1-7</t>
+  </si>
+  <si>
+    <t>ጴጥ 1 ም 5 ቁ 2-5</t>
+  </si>
+  <si>
+    <t>ግብ ሐዋ ም 9 ቁ 37-ፍም</t>
+  </si>
+  <si>
+    <t>መዝ 44 ቁ 14-15</t>
+  </si>
+  <si>
+    <t>ሉቃስ ም 27 ቁ 26-32</t>
+  </si>
+  <si>
+    <t>ዘእግዝእትነ</t>
+  </si>
+  <si>
+    <t>ሉቃስ</t>
+  </si>
+  <si>
+    <t>ጴጥሮስ</t>
+  </si>
+  <si>
+    <t>{"meta.ethMonthDay": {"$eq": "05-30"}}</t>
+  </si>
+  <si>
+    <t>ዘወ3</t>
+  </si>
+  <si>
+    <t>ኤፌ 1 ም 4 ቁ 17-ፍም</t>
+  </si>
+  <si>
+    <t>ይሁዳ ም 1 ቁ 17-23</t>
+  </si>
+  <si>
+    <t>ግብ ሐዋ ም 8 ቁ 28-31</t>
+  </si>
+  <si>
+    <t>መዝ 32 ቁ 5-6</t>
+  </si>
+  <si>
+    <t>ዮሐ ም 15 ቁ 17-26</t>
+  </si>
+  <si>
+    <t>ግሩም</t>
+  </si>
+  <si>
+    <t>ዮሐንስ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ይሁዳ </t>
+  </si>
+  <si>
+    <t>{"meta.ethMonthDay": {"$eq": "06-01"}}</t>
+  </si>
+  <si>
+    <t>ተው1</t>
+  </si>
+  <si>
+    <t>ተውሳክ</t>
+  </si>
+  <si>
+    <t>{"meta.ethDate" : {"$eq": "$ref:meta.holidays.timket"}}</t>
+  </si>
+  <si>
+    <t>ተው2</t>
+  </si>
+  <si>
+    <t>{"meta.ethDate" : {"$eq": "$ref:meta.holidays.siklet"}}</t>
+  </si>
+  <si>
+    <t>ተው3</t>
+  </si>
+  <si>
+    <t>{"meta.ethDate" : {"$eq": "$ref:meta.holidays.paraclete"}}</t>
+  </si>
+  <si>
+    <t>ሰና1</t>
+  </si>
+  <si>
+    <t>ሰናብት</t>
+  </si>
+  <si>
+    <t>{"meta.dayOfWeek": {"$eq": "Sun"}, "meta.ethMonthDay": {"$eq": "06-02"}}</t>
+  </si>
+  <si>
+    <t>ሰና2</t>
+  </si>
+  <si>
+    <t>{"meta.dayOfWeek": {"$eq": "Sun"}, "meta.ethMonthDay": {"$eq": "06-09"}}</t>
+  </si>
+  <si>
+    <t>ሰና3</t>
+  </si>
+  <si>
+    <t>{"meta.dayOfWeek": {"$eq": "Sun"}, "meta.ethMonthDay": {"$eq": "06-16"}}</t>
   </si>
 </sst>
 </file>
@@ -519,6 +713,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -9345,4 +9543,408 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="17.0"/>
+    <col customWidth="1" min="3" max="3" width="18.71"/>
+    <col customWidth="1" min="4" max="4" width="24.14"/>
+    <col customWidth="1" min="6" max="6" width="19.0"/>
+    <col customWidth="1" min="9" max="9" width="25.57"/>
+    <col customWidth="1" min="12" max="12" width="66.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/kidase-presentation/samples/Kidase Presentation Template.xlsx
+++ b/kidase-presentation/samples/Kidase Presentation Template.xlsx
@@ -615,19 +615,19 @@
     <t>ተውሳክ</t>
   </si>
   <si>
-    <t>{"meta.ethDate" : {"$eq": "$ref:meta.holidays.timket"}}</t>
+    <t>{"meta.date" : {"$eq": "$ref:meta.holidays.timket"}}</t>
   </si>
   <si>
     <t>ተው2</t>
   </si>
   <si>
-    <t>{"meta.ethDate" : {"$eq": "$ref:meta.holidays.siklet"}}</t>
+    <t>{"meta.date" : {"$eq": "$ref:meta.holidays.siklet"}}</t>
   </si>
   <si>
     <t>ተው3</t>
   </si>
   <si>
-    <t>{"meta.ethDate" : {"$eq": "$ref:meta.holidays.paraclete"}}</t>
+    <t>{"meta.date" : {"$eq": "$ref:meta.holidays.paraclete"}}</t>
   </si>
   <si>
     <t>ሰና1</t>
@@ -636,19 +636,19 @@
     <t>ሰናብት</t>
   </si>
   <si>
-    <t>{"meta.dayOfWeek": {"$eq": "Sun"}, "meta.ethMonthDay": {"$eq": "06-02"}}</t>
+    <t>{"$and": [{"meta.dayOfWeek": {"$eq": "Sun"}}, {"meta.ethMonthDay": {"$eq": "06-01"}}]}</t>
   </si>
   <si>
     <t>ሰና2</t>
   </si>
   <si>
-    <t>{"meta.dayOfWeek": {"$eq": "Sun"}, "meta.ethMonthDay": {"$eq": "06-09"}}</t>
+    <t>{"$and": [{"meta.dayOfWeek": {"$eq": "Sun"}}, {"meta.ethMonthDay": {"$eq": "06-08"}}]}</t>
   </si>
   <si>
     <t>ሰና3</t>
   </si>
   <si>
-    <t>{"meta.dayOfWeek": {"$eq": "Sun"}, "meta.ethMonthDay": {"$eq": "06-16"}}</t>
+    <t>{"$and": [{"meta.dayOfWeek": {"$eq": "Sun"}}, {"meta.ethMonthDay": {"$eq": "06-15"}}]}</t>
   </si>
 </sst>
 </file>
@@ -9560,7 +9560,7 @@
     <col customWidth="1" min="4" max="4" width="24.14"/>
     <col customWidth="1" min="6" max="6" width="19.0"/>
     <col customWidth="1" min="9" max="9" width="25.57"/>
-    <col customWidth="1" min="12" max="12" width="66.29"/>
+    <col customWidth="1" min="12" max="12" width="98.57"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/kidase-presentation/samples/Kidase Presentation Template.xlsx
+++ b/kidase-presentation/samples/Kidase Presentation Template.xlsx
@@ -7,6 +7,7 @@
     <sheet state="visible" name="Metadata" sheetId="2" r:id="rId6"/>
     <sheet state="visible" name="Variables" sheetId="3" r:id="rId7"/>
     <sheet state="visible" name="Gitsawe" sheetId="4" r:id="rId8"/>
+    <sheet state="visible" name="Verses" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="238">
   <si>
     <t>LineId</t>
   </si>
@@ -99,6 +100,9 @@
   </si>
   <si>
     <t>DisplayRule</t>
+  </si>
+  <si>
+    <t>IsDymanic</t>
   </si>
   <si>
     <t>ይ፡ካ</t>
@@ -375,6 +379,24 @@
     <t xml:space="preserve">our country @COUNTRY_NAME, with our church @CHURCH_NAME ,and with all christen people ,world without end. Amen. </t>
   </si>
   <si>
+    <t>ንባብ፡ መልእክተ፡ ጳውሎስ</t>
+  </si>
+  <si>
+    <t>የቅዱስ ጳውሎስ መልእክት ንባብ</t>
+  </si>
+  <si>
+    <t>መልእኽቲ ቅዱስ ጳውሎስ</t>
+  </si>
+  <si>
+    <t>The reading of St. Paul's Message</t>
+  </si>
+  <si>
+    <t>@meta.gitsawe.messageStPaul</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>PresentationName</t>
   </si>
   <si>
@@ -546,7 +568,7 @@
     <t>ዘወትር</t>
   </si>
   <si>
-    <t>{"meta.ethMonthDay": {"$eq": "01-01"}}</t>
+    <t>{"meta.ethMonthDay": {"$eq": "06-03"}}</t>
   </si>
   <si>
     <t>ዘወ2</t>
@@ -576,7 +598,7 @@
     <t>ጴጥሮስ</t>
   </si>
   <si>
-    <t>{"meta.ethMonthDay": {"$eq": "05-30"}}</t>
+    <t>{"meta.ethMonthDay": {"$eq": "06-04"}}</t>
   </si>
   <si>
     <t>ዘወ3</t>
@@ -606,7 +628,7 @@
     <t xml:space="preserve">ይሁዳ </t>
   </si>
   <si>
-    <t>{"meta.ethMonthDay": {"$eq": "06-01"}}</t>
+    <t>{"meta.ethMonthDay": {"$eq": "06-05"}}</t>
   </si>
   <si>
     <t>ተው1</t>
@@ -649,6 +671,121 @@
   </si>
   <si>
     <t>{"$and": [{"meta.dayOfWeek": {"$eq": "Sun"}}, {"meta.ethMonthDay": {"$eq": "06-15"}}]}</t>
+  </si>
+  <si>
+    <t>SegmentId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16ነገር ግን መልካም ማድረግን ለሌሎችም ማካፈልን አትርሱ፤ እንዲህ ያለው መሥዋዕት እግዚአብሔርን ደስ ያሰኘዋልና።  
+17ለዋኖቻችሁ ታዘዙና ተገዙ፤ እነርሱ ስሌትን እንደሚሰጡ አድርገው፥ ይህንኑ በደስታ እንጂ በኃዘን እንዳያደርጉት፥ ይህ የማይጠቅማችሁ ነበርና፥ ስለ ነፍሳችሁ ይተጋሉ። </t>
+  </si>
+  <si>
+    <t>16ኣምላኽ ነዚ ኸምዚ ዘመሰለ መስዋእቲ ይሰምሮ እዩ እሞ፡ ሰናይ ምግባርን ምምቓልን ኣይትረስዑ።  
+17ንመራሕትኹም ተኣዘዝዎምን ተገዝእዎምን። ንሳቶም ከምቶም ጸብጻብ ዚህቡ ዀይኖም፡ ምእንቲ ነፍሳትኩም ነቒሖም ይሕልዉ አለዉ እሞ፡ ነዚ ብታሕጓስ ኪገብርዎ እምበር፡ ብጓሂ እንተ ገበርዎ፡ እዚ ንኣካትኩም ኣይጠቅምን እዩ።</t>
+  </si>
+  <si>
+    <t>18ጸልዩልን፤ በነገር ሁሉ በመልካም እንድንኖር ወደን፥ መልካም ሕሊና እንዳለን ተረድተናልና።  
+19ይልቁንም ፈጥኜ እንድመለስላችሁ ይህን ታደርጉ ዘንድ አጥብቄ እለምናችኋለሁ።</t>
+  </si>
+  <si>
+    <t>18ብዅሉ ደግነት ክንነብር እናደሌና፡ ሰናይ ሕሊና ኸም ዘሎና፡ ተረዲእናዮ አሎና እሞ፡ ጸልዩልና።  
+19ኣነ ቐልጢፈ ኸም ብሓድሽ ምእንቲ ኽውሃበኩም፡ እዚ ኽትገብሩ ኣብዚሔ እምዕደኩም አሎኹ።</t>
+  </si>
+  <si>
+    <t>20በዘላለም ኪዳን ደም ለበጎች ትልቅ እረኛ የሆነውን ጌታችንን ኢየሱስን ከሙታን ያወጣው የሰላም አምላክ፥  
+21በኢየሱስ ክርስቶስ በኩል በፊቱ ደስ የሚያሰኘውን በእናንተ እያደረገ፥ ፈቃዱን ታደርጉ ዘንድ በመልካም ሥራ ሁሉ ፍጹማን ያድርጋችሁ፤ ለእርሱ እስከ ዘላለም ድረስ ክብር ይሁን፤ አሜን።</t>
+  </si>
+  <si>
+    <t>20ኣምላኽ ሰላም ግና ነቲ ብናይ ዘለኣለም ደም ኪዳን ዓብዪ ጓሳ ኣባጊዕ፡ ጐይታና የሱስ ክርስቶስ፡ ካብ ምዉታት ዘተንስኦ፡  
+21ብየሱስ ክርስቶስ ኣብ ቅድሚኡ ባህ ዜብሉ ኣባኻትኩም እናገበረ ብሰናይ ግብሪ ዘበለ ዅሉ ፍቓድ ኽትገብሩ የብቅዕኩም። ካብ ዘለኣለም ንዘለኣለም ንእኡ ኽብሪ ይኹኖ። ኣሜን።</t>
+  </si>
+  <si>
+    <t>22ወንድሞች ሆይ፥ የምክርን ቃል እንድትታገሡ እመክራችኋለሁ፥ በጥቂት ቃል ጽፌላችኋለሁና።  
+23ወንድማችን ጢሞቴዎስ እንደ ተፈታ እወቁ፥ ቶሎ ብሎም ቢመጣ ከእርሱ ጋር አያችኋለሁ።</t>
+  </si>
+  <si>
+    <t>22ኣቱም ኣሕዋተይ፡ እዚ ቓል ምኽሪ እዚ ኣሕጺረ ጽሒፈልኩም እየ እሞ፡ ክትቅበልዎ እልምነኩም አሎኹ።  
+23ጢሞቴዎስ ሓዉና ኸም እተፈትሔ፡ ፍለጡ፡ ንሱ ቐልጢፉ እንተ መጸ፡ ምስኡ ኽርእየኩም እየ።</t>
+  </si>
+  <si>
+    <t>24ለዋኖቻችሁ ሁሉና ለቅዱሳን ሁሉ ሰላምታ አቅርቡልኝ። ከኢጣልያ የሆኑቱ ሰላምታ ያቀርቡላችኋል።  
+25ጸጋ ከሁላችሁ ጋር ይሁን፤ አሜን።</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24ንዅላቶም መራሕትኹምን ንዅላቶም ቅዱሳንን ሰላም በልዎም። እቶም ካብ ኢጣልያ ዝዀኑ ሰላም ይብሉኹም አለዉ።  
+25ጸጋ ምስ ኵላትኩም ይኹን። ኣሜን።
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+21የተጠራችሁለት ለዚህ ነውና፤ ክርስቶስ ደግሞ ፍለጋውን እንድትከተሉ ምሳሌ ትቶላችሁ ስለ እናንተ መከራን ተቀብሎአልና።   
+22እርሱም ኃጢአት አላደረገም፥ ተንኰልም በአፉ አልተገኘበትም፤ </t>
+  </si>
+  <si>
+    <t>21ነዚ ኢኹም እተጸዋዕኩም እሞ፡ ክርስቶስ ከኣ፡ ምእንቲ ኣስኣሰሩ ኽትስዕቡ፡ ኣርኣያ ሓዲጉልኩም ምእንታኹም መከራ ጸገበ።   
+22ንሱ ሓጢኣት ዘይገበረ፡ ተንኰልውን ኣብ ኣፉ ዘይተረኽበ፡</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+23ሲሰድቡት መልሶ አልተሳደበም መከራንም ሲቀበል አልዛተም፥ ነገር ግን በጽድቅ ለሚፈርደው ራሱን አሳልፎ ሰጠ፤   
+24ለኃጢአት ሞተን ለጽድቅ እንድንኖር፥ እርሱ ራሱ በሥጋው ኃጢአታችንን በእንጨት ላይ ተሸከመ</t>
+  </si>
+  <si>
+    <t>23ምስ ጸረፍዎ መሊሱ ዘይጸረፈ፡ መከራ ምስ ኣጽገብዎ ኸኣ፡ ነቲ ብቕንዕና ዚፈርድ ደኣ ነገሩ ኣሕሊፉ ሀበ እምበር፡ ዘየፈራርሄ።   
+24ንሓጢኣት መዊትናስ ንጽድቂ ምእንቲ ኽንነብር፡ ንሱ ባዕሉ ንሓጢኣትና ኣብ ስጋኡ ኣብ ዕንጨይቲ ጾሮ፡ ብቝስሉ ኢኹም ዝሐዌኹም።</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+25በመገረፉ ቁስል ተፈወሳችሁ። እንደ በጎች ትቅበዘበዙ ነበርና፥ አሁን ግን ወደ ነፍሳችሁ እረኛና ጠባቂ ተመልሳችኋል።
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25ከም እተባረራ ኣባጊዕ ኔርኩም ኢኹም እሞ፡ ሕጂ ግና ናብቲ ጓሳኹምን ሓላው ነፍሳትኩምን ተመሊስኩም አሎኹም። </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22ወሬውም በኢየሩሳሌም ባለችው ቤተ ክርስቲያን ስለ እነርሱ ተሰማ፥ በርናባስንም ወደ አንጾኪያ ላኩት፤   </t>
+  </si>
+  <si>
+    <t>22እዚ ወረ እዚ ኸኣ ብዛዕባኦም ኣብታ ኣብ የሩሳሌም ዘላ ማሕበር ተሰምዔ፡ ንበርናባስ ድማ ናብ ኣንጾክያ ለኣኽዎ።</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+23እርሱም መጥቶ የእግዚአብሔርን ጸጋ ባየ ጊዜ ደስ አለው፥ ሁሉንም በልባቸው ፈቃድ በጌታ ጸንተው ይኖሩ ዘንድ መከራቸው፤ 
+24ደግ ሰውና መንፈስ ቅዱስ እምነትም የሞላበት ነበረና። ብዙ ሕዝብም ወደ ጌታ ተጨመሩ።   </t>
+  </si>
+  <si>
+    <t>23-24ንሱ ምስ መጸ፡ ጸጋ ኣምላኽ ርእዩ ተሐጐሰ። ንሱ መንፈስ ቅዱስን እምነትን ዝመልኦ ሕያዋይ ሰብኣይ እዩ እሞ፡ ብምሉእ ልቦም ብጐይታ ጸኒዖም ኪነብሩ መኸሮም፡ ብዙሕ ህዝቢ ኸኣ ንጐይታ ተወሰኸ።</t>
+  </si>
+  <si>
+    <t>ኖላዊሆሙ ለእስራኤል አፅምእ፤  ዘይርዕዮሙ ከመ አባግዕ ለዮሴፍ።  ዘይነብር ላዕለ ኪሩቤል  አስተርአየ።  መዝ 80፡1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ዮሴፍን እንደ መንጋ የምትመራ፥ የእስራኤል ጠባቂ ሆይ፥ አድምጥ፤ በኪሩቤል ላይ የምትቀመጥ፥ ተገለጥ።</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ዎ ጓሳ እስራኤል፣ ጽን በል። ንዮሴፍ ከም መጓሰ እትመርሖ፣ ኣታ አብ ልዕሊ ኪሩቤል እትቕመጥ፣ በሪህካ ተገለጽ። </t>
+  </si>
+  <si>
+    <t>Give ear, O Shepherd of Israel, thou that leadest Joseph like a flock; thou that dwellest between the cherubims, shine forth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+1እውነት እውነት እላችኋለሁ፥ ወደ በጎች በረት በበሩ የማይገባ በሌላ መንገድ ግን የሚወጣ እርሱ ሌባ ወንበዴም ነው፤  
+2በበሩ የሚገባ ግን የበጎች እረኛ ነው። </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1እቲ ናብ ደምበ ኣባጊዕ ብኣፍ ደገ ዘይኣቱ፡ ብኻልእ ወገን ዚሐኵር፡ ንሱ ሰራቕን ጕሒላን ከም ዝዀነ፡ ብሓቂ፡ ብሓቂ እብለኩም አሎኹ።  
+2እቲ ብኣፍ ደገ ዚኣቱ ግና፡ ንሱ ጓሳ ኣባጊዕ እዩ። </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+3ለእርሱ በረኛው ይከፍትለታል፤ በጎቹም ድምፁን ይሰሙታል፥ የራሱንም በጎች በየስማቸው ጠርቶ ይወስዳቸዋል።   
+4የራሱንም ሁሉ ካወጣቸው በኋላ በፊታቸው ይሄዳል፥ በጎቹም ድምፁን ያውቃሉና ይከተሉታል፤
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ንእኡ እቲ ሓላው ደገ ይኸፍተሉ፡ እተን ኣባጊዕውን ቃሉ ይሰምዓ። ነተን ኣባጊዑ ኸኣ በብሰመን ጸዊዑ የውፍረን።   
+4ነተን ኣባጊዕ ምስ ኣውፍረን ድማ፡ ቀቅድሜኤን ይኸይድ፡ እተን ኣባጊዕውን ድምጹ የለልያ እየን እሞ፡ ይስዕባኦ። </t>
   </si>
 </sst>
 </file>
@@ -717,6 +854,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -928,7 +1069,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.43"/>
+    <col customWidth="1" min="1" max="1" width="29.57"/>
     <col customWidth="1" min="2" max="5" width="11.0"/>
     <col customWidth="1" min="6" max="6" width="43.57"/>
     <col customWidth="1" min="7" max="7" width="43.43"/>
@@ -937,7 +1078,8 @@
     <col customWidth="1" min="10" max="18" width="20.14"/>
     <col customWidth="1" min="19" max="19" width="14.29"/>
     <col customWidth="1" min="20" max="20" width="49.14"/>
-    <col customWidth="1" min="21" max="34" width="8.71"/>
+    <col customWidth="1" min="21" max="21" width="9.86"/>
+    <col customWidth="1" min="22" max="34" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1001,627 +1143,647 @@
       <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="F27" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="F28" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="F29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
+      <c r="U30" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="F31" s="4"/>
@@ -7422,48 +7584,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -8474,87 +8636,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9568,383 +9730,6536 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K2" s="3">
         <v>3.0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="K3" s="3">
         <v>3.0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K4" s="3">
         <v>3.0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K5" s="3">
         <v>2.0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K6" s="3">
         <v>2.0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K7" s="3">
         <v>2.0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K8" s="3">
         <v>1.0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K9" s="3">
         <v>1.0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K10" s="3">
         <v>1.0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.0"/>
+    <col customWidth="1" min="2" max="2" width="19.57"/>
+    <col customWidth="1" min="7" max="7" width="38.57"/>
+    <col customWidth="1" min="8" max="8" width="116.29"/>
+    <col customWidth="1" min="9" max="9" width="193.86"/>
+    <col customWidth="1" min="10" max="10" width="47.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58">
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59">
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60">
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64">
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65">
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66">
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67">
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69">
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70">
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71">
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72">
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73">
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74">
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75">
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77">
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78">
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79">
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80">
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81">
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82">
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83">
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84">
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85">
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86">
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87">
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88">
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89">
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90">
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91">
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92">
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93">
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94">
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95">
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96">
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97">
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+    </row>
+    <row r="99">
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100">
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101">
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102">
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103">
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104">
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105">
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106">
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107">
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108">
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109">
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110">
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111">
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112">
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+    </row>
+    <row r="113">
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114">
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115">
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116">
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117">
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118">
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119">
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120">
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+    </row>
+    <row r="121">
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+    </row>
+    <row r="122">
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+    </row>
+    <row r="123">
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+    </row>
+    <row r="124">
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125">
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126">
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127">
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128">
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+    </row>
+    <row r="129">
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+    </row>
+    <row r="130">
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+    </row>
+    <row r="131">
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132">
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133">
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134">
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135">
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136">
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+    </row>
+    <row r="137">
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+    </row>
+    <row r="138">
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+    </row>
+    <row r="139">
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+    </row>
+    <row r="140">
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+    </row>
+    <row r="141">
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+    </row>
+    <row r="142">
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+    </row>
+    <row r="143">
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+    </row>
+    <row r="144">
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+    </row>
+    <row r="145">
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+    </row>
+    <row r="146">
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+    </row>
+    <row r="147">
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+    </row>
+    <row r="148">
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+    </row>
+    <row r="149">
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+    </row>
+    <row r="150">
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+    </row>
+    <row r="151">
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+    </row>
+    <row r="152">
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+    </row>
+    <row r="153">
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+    </row>
+    <row r="154">
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+    </row>
+    <row r="155">
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+    </row>
+    <row r="156">
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+    </row>
+    <row r="157">
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+    </row>
+    <row r="158">
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+    </row>
+    <row r="159">
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+    </row>
+    <row r="160">
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+    </row>
+    <row r="161">
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+    </row>
+    <row r="162">
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+    </row>
+    <row r="163">
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+    </row>
+    <row r="164">
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+    </row>
+    <row r="165">
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+    </row>
+    <row r="166">
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+    </row>
+    <row r="167">
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+    </row>
+    <row r="168">
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+    </row>
+    <row r="169">
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+    </row>
+    <row r="170">
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+    </row>
+    <row r="171">
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+    </row>
+    <row r="172">
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+    </row>
+    <row r="173">
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+    </row>
+    <row r="174">
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+    </row>
+    <row r="175">
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+    </row>
+    <row r="176">
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+    </row>
+    <row r="177">
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+    </row>
+    <row r="178">
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+    </row>
+    <row r="179">
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+    </row>
+    <row r="180">
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+    </row>
+    <row r="181">
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+    </row>
+    <row r="182">
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+    </row>
+    <row r="183">
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+    </row>
+    <row r="184">
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="4"/>
+    </row>
+    <row r="185">
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+    </row>
+    <row r="186">
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+    </row>
+    <row r="187">
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+    </row>
+    <row r="188">
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+    </row>
+    <row r="189">
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+    </row>
+    <row r="190">
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+    </row>
+    <row r="191">
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
+    </row>
+    <row r="192">
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4"/>
+    </row>
+    <row r="193">
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+      <c r="J193" s="4"/>
+    </row>
+    <row r="194">
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
+    </row>
+    <row r="195">
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
+    </row>
+    <row r="196">
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+    </row>
+    <row r="197">
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+    </row>
+    <row r="198">
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
+    </row>
+    <row r="199">
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
+    </row>
+    <row r="200">
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+    </row>
+    <row r="201">
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
+    </row>
+    <row r="202">
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
+    </row>
+    <row r="203">
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+    </row>
+    <row r="204">
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
+    </row>
+    <row r="205">
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
+    </row>
+    <row r="206">
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+    </row>
+    <row r="207">
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="4"/>
+      <c r="J207" s="4"/>
+    </row>
+    <row r="208">
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+    </row>
+    <row r="209">
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
+    </row>
+    <row r="210">
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+      <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
+    </row>
+    <row r="211">
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
+    </row>
+    <row r="212">
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
+    </row>
+    <row r="213">
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
+    </row>
+    <row r="214">
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="4"/>
+      <c r="J214" s="4"/>
+    </row>
+    <row r="215">
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="4"/>
+      <c r="J215" s="4"/>
+    </row>
+    <row r="216">
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="4"/>
+      <c r="J216" s="4"/>
+    </row>
+    <row r="217">
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+      <c r="I217" s="4"/>
+      <c r="J217" s="4"/>
+    </row>
+    <row r="218">
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
+      <c r="I218" s="4"/>
+      <c r="J218" s="4"/>
+    </row>
+    <row r="219">
+      <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
+      <c r="I219" s="4"/>
+      <c r="J219" s="4"/>
+    </row>
+    <row r="220">
+      <c r="G220" s="4"/>
+      <c r="H220" s="4"/>
+      <c r="I220" s="4"/>
+      <c r="J220" s="4"/>
+    </row>
+    <row r="221">
+      <c r="G221" s="4"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="4"/>
+      <c r="J221" s="4"/>
+    </row>
+    <row r="222">
+      <c r="G222" s="4"/>
+      <c r="H222" s="4"/>
+      <c r="I222" s="4"/>
+      <c r="J222" s="4"/>
+    </row>
+    <row r="223">
+      <c r="G223" s="4"/>
+      <c r="H223" s="4"/>
+      <c r="I223" s="4"/>
+      <c r="J223" s="4"/>
+    </row>
+    <row r="224">
+      <c r="G224" s="4"/>
+      <c r="H224" s="4"/>
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+    </row>
+    <row r="225">
+      <c r="G225" s="4"/>
+      <c r="H225" s="4"/>
+      <c r="I225" s="4"/>
+      <c r="J225" s="4"/>
+    </row>
+    <row r="226">
+      <c r="G226" s="4"/>
+      <c r="H226" s="4"/>
+      <c r="I226" s="4"/>
+      <c r="J226" s="4"/>
+    </row>
+    <row r="227">
+      <c r="G227" s="4"/>
+      <c r="H227" s="4"/>
+      <c r="I227" s="4"/>
+      <c r="J227" s="4"/>
+    </row>
+    <row r="228">
+      <c r="G228" s="4"/>
+      <c r="H228" s="4"/>
+      <c r="I228" s="4"/>
+      <c r="J228" s="4"/>
+    </row>
+    <row r="229">
+      <c r="G229" s="4"/>
+      <c r="H229" s="4"/>
+      <c r="I229" s="4"/>
+      <c r="J229" s="4"/>
+    </row>
+    <row r="230">
+      <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
+      <c r="I230" s="4"/>
+      <c r="J230" s="4"/>
+    </row>
+    <row r="231">
+      <c r="G231" s="4"/>
+      <c r="H231" s="4"/>
+      <c r="I231" s="4"/>
+      <c r="J231" s="4"/>
+    </row>
+    <row r="232">
+      <c r="G232" s="4"/>
+      <c r="H232" s="4"/>
+      <c r="I232" s="4"/>
+      <c r="J232" s="4"/>
+    </row>
+    <row r="233">
+      <c r="G233" s="4"/>
+      <c r="H233" s="4"/>
+      <c r="I233" s="4"/>
+      <c r="J233" s="4"/>
+    </row>
+    <row r="234">
+      <c r="G234" s="4"/>
+      <c r="H234" s="4"/>
+      <c r="I234" s="4"/>
+      <c r="J234" s="4"/>
+    </row>
+    <row r="235">
+      <c r="G235" s="4"/>
+      <c r="H235" s="4"/>
+      <c r="I235" s="4"/>
+      <c r="J235" s="4"/>
+    </row>
+    <row r="236">
+      <c r="G236" s="4"/>
+      <c r="H236" s="4"/>
+      <c r="I236" s="4"/>
+      <c r="J236" s="4"/>
+    </row>
+    <row r="237">
+      <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
+      <c r="I237" s="4"/>
+      <c r="J237" s="4"/>
+    </row>
+    <row r="238">
+      <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
+      <c r="I238" s="4"/>
+      <c r="J238" s="4"/>
+    </row>
+    <row r="239">
+      <c r="G239" s="4"/>
+      <c r="H239" s="4"/>
+      <c r="I239" s="4"/>
+      <c r="J239" s="4"/>
+    </row>
+    <row r="240">
+      <c r="G240" s="4"/>
+      <c r="H240" s="4"/>
+      <c r="I240" s="4"/>
+      <c r="J240" s="4"/>
+    </row>
+    <row r="241">
+      <c r="G241" s="4"/>
+      <c r="H241" s="4"/>
+      <c r="I241" s="4"/>
+      <c r="J241" s="4"/>
+    </row>
+    <row r="242">
+      <c r="G242" s="4"/>
+      <c r="H242" s="4"/>
+      <c r="I242" s="4"/>
+      <c r="J242" s="4"/>
+    </row>
+    <row r="243">
+      <c r="G243" s="4"/>
+      <c r="H243" s="4"/>
+      <c r="I243" s="4"/>
+      <c r="J243" s="4"/>
+    </row>
+    <row r="244">
+      <c r="G244" s="4"/>
+      <c r="H244" s="4"/>
+      <c r="I244" s="4"/>
+      <c r="J244" s="4"/>
+    </row>
+    <row r="245">
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
+      <c r="I245" s="4"/>
+      <c r="J245" s="4"/>
+    </row>
+    <row r="246">
+      <c r="G246" s="4"/>
+      <c r="H246" s="4"/>
+      <c r="I246" s="4"/>
+      <c r="J246" s="4"/>
+    </row>
+    <row r="247">
+      <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
+      <c r="I247" s="4"/>
+      <c r="J247" s="4"/>
+    </row>
+    <row r="248">
+      <c r="G248" s="4"/>
+      <c r="H248" s="4"/>
+      <c r="I248" s="4"/>
+      <c r="J248" s="4"/>
+    </row>
+    <row r="249">
+      <c r="G249" s="4"/>
+      <c r="H249" s="4"/>
+      <c r="I249" s="4"/>
+      <c r="J249" s="4"/>
+    </row>
+    <row r="250">
+      <c r="G250" s="4"/>
+      <c r="H250" s="4"/>
+      <c r="I250" s="4"/>
+      <c r="J250" s="4"/>
+    </row>
+    <row r="251">
+      <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
+      <c r="I251" s="4"/>
+      <c r="J251" s="4"/>
+    </row>
+    <row r="252">
+      <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
+      <c r="I252" s="4"/>
+      <c r="J252" s="4"/>
+    </row>
+    <row r="253">
+      <c r="G253" s="4"/>
+      <c r="H253" s="4"/>
+      <c r="I253" s="4"/>
+      <c r="J253" s="4"/>
+    </row>
+    <row r="254">
+      <c r="G254" s="4"/>
+      <c r="H254" s="4"/>
+      <c r="I254" s="4"/>
+      <c r="J254" s="4"/>
+    </row>
+    <row r="255">
+      <c r="G255" s="4"/>
+      <c r="H255" s="4"/>
+      <c r="I255" s="4"/>
+      <c r="J255" s="4"/>
+    </row>
+    <row r="256">
+      <c r="G256" s="4"/>
+      <c r="H256" s="4"/>
+      <c r="I256" s="4"/>
+      <c r="J256" s="4"/>
+    </row>
+    <row r="257">
+      <c r="G257" s="4"/>
+      <c r="H257" s="4"/>
+      <c r="I257" s="4"/>
+      <c r="J257" s="4"/>
+    </row>
+    <row r="258">
+      <c r="G258" s="4"/>
+      <c r="H258" s="4"/>
+      <c r="I258" s="4"/>
+      <c r="J258" s="4"/>
+    </row>
+    <row r="259">
+      <c r="G259" s="4"/>
+      <c r="H259" s="4"/>
+      <c r="I259" s="4"/>
+      <c r="J259" s="4"/>
+    </row>
+    <row r="260">
+      <c r="G260" s="4"/>
+      <c r="H260" s="4"/>
+      <c r="I260" s="4"/>
+      <c r="J260" s="4"/>
+    </row>
+    <row r="261">
+      <c r="G261" s="4"/>
+      <c r="H261" s="4"/>
+      <c r="I261" s="4"/>
+      <c r="J261" s="4"/>
+    </row>
+    <row r="262">
+      <c r="G262" s="4"/>
+      <c r="H262" s="4"/>
+      <c r="I262" s="4"/>
+      <c r="J262" s="4"/>
+    </row>
+    <row r="263">
+      <c r="G263" s="4"/>
+      <c r="H263" s="4"/>
+      <c r="I263" s="4"/>
+      <c r="J263" s="4"/>
+    </row>
+    <row r="264">
+      <c r="G264" s="4"/>
+      <c r="H264" s="4"/>
+      <c r="I264" s="4"/>
+      <c r="J264" s="4"/>
+    </row>
+    <row r="265">
+      <c r="G265" s="4"/>
+      <c r="H265" s="4"/>
+      <c r="I265" s="4"/>
+      <c r="J265" s="4"/>
+    </row>
+    <row r="266">
+      <c r="G266" s="4"/>
+      <c r="H266" s="4"/>
+      <c r="I266" s="4"/>
+      <c r="J266" s="4"/>
+    </row>
+    <row r="267">
+      <c r="G267" s="4"/>
+      <c r="H267" s="4"/>
+      <c r="I267" s="4"/>
+      <c r="J267" s="4"/>
+    </row>
+    <row r="268">
+      <c r="G268" s="4"/>
+      <c r="H268" s="4"/>
+      <c r="I268" s="4"/>
+      <c r="J268" s="4"/>
+    </row>
+    <row r="269">
+      <c r="G269" s="4"/>
+      <c r="H269" s="4"/>
+      <c r="I269" s="4"/>
+      <c r="J269" s="4"/>
+    </row>
+    <row r="270">
+      <c r="G270" s="4"/>
+      <c r="H270" s="4"/>
+      <c r="I270" s="4"/>
+      <c r="J270" s="4"/>
+    </row>
+    <row r="271">
+      <c r="G271" s="4"/>
+      <c r="H271" s="4"/>
+      <c r="I271" s="4"/>
+      <c r="J271" s="4"/>
+    </row>
+    <row r="272">
+      <c r="G272" s="4"/>
+      <c r="H272" s="4"/>
+      <c r="I272" s="4"/>
+      <c r="J272" s="4"/>
+    </row>
+    <row r="273">
+      <c r="G273" s="4"/>
+      <c r="H273" s="4"/>
+      <c r="I273" s="4"/>
+      <c r="J273" s="4"/>
+    </row>
+    <row r="274">
+      <c r="G274" s="4"/>
+      <c r="H274" s="4"/>
+      <c r="I274" s="4"/>
+      <c r="J274" s="4"/>
+    </row>
+    <row r="275">
+      <c r="G275" s="4"/>
+      <c r="H275" s="4"/>
+      <c r="I275" s="4"/>
+      <c r="J275" s="4"/>
+    </row>
+    <row r="276">
+      <c r="G276" s="4"/>
+      <c r="H276" s="4"/>
+      <c r="I276" s="4"/>
+      <c r="J276" s="4"/>
+    </row>
+    <row r="277">
+      <c r="G277" s="4"/>
+      <c r="H277" s="4"/>
+      <c r="I277" s="4"/>
+      <c r="J277" s="4"/>
+    </row>
+    <row r="278">
+      <c r="G278" s="4"/>
+      <c r="H278" s="4"/>
+      <c r="I278" s="4"/>
+      <c r="J278" s="4"/>
+    </row>
+    <row r="279">
+      <c r="G279" s="4"/>
+      <c r="H279" s="4"/>
+      <c r="I279" s="4"/>
+      <c r="J279" s="4"/>
+    </row>
+    <row r="280">
+      <c r="G280" s="4"/>
+      <c r="H280" s="4"/>
+      <c r="I280" s="4"/>
+      <c r="J280" s="4"/>
+    </row>
+    <row r="281">
+      <c r="G281" s="4"/>
+      <c r="H281" s="4"/>
+      <c r="I281" s="4"/>
+      <c r="J281" s="4"/>
+    </row>
+    <row r="282">
+      <c r="G282" s="4"/>
+      <c r="H282" s="4"/>
+      <c r="I282" s="4"/>
+      <c r="J282" s="4"/>
+    </row>
+    <row r="283">
+      <c r="G283" s="4"/>
+      <c r="H283" s="4"/>
+      <c r="I283" s="4"/>
+      <c r="J283" s="4"/>
+    </row>
+    <row r="284">
+      <c r="G284" s="4"/>
+      <c r="H284" s="4"/>
+      <c r="I284" s="4"/>
+      <c r="J284" s="4"/>
+    </row>
+    <row r="285">
+      <c r="G285" s="4"/>
+      <c r="H285" s="4"/>
+      <c r="I285" s="4"/>
+      <c r="J285" s="4"/>
+    </row>
+    <row r="286">
+      <c r="G286" s="4"/>
+      <c r="H286" s="4"/>
+      <c r="I286" s="4"/>
+      <c r="J286" s="4"/>
+    </row>
+    <row r="287">
+      <c r="G287" s="4"/>
+      <c r="H287" s="4"/>
+      <c r="I287" s="4"/>
+      <c r="J287" s="4"/>
+    </row>
+    <row r="288">
+      <c r="G288" s="4"/>
+      <c r="H288" s="4"/>
+      <c r="I288" s="4"/>
+      <c r="J288" s="4"/>
+    </row>
+    <row r="289">
+      <c r="G289" s="4"/>
+      <c r="H289" s="4"/>
+      <c r="I289" s="4"/>
+      <c r="J289" s="4"/>
+    </row>
+    <row r="290">
+      <c r="G290" s="4"/>
+      <c r="H290" s="4"/>
+      <c r="I290" s="4"/>
+      <c r="J290" s="4"/>
+    </row>
+    <row r="291">
+      <c r="G291" s="4"/>
+      <c r="H291" s="4"/>
+      <c r="I291" s="4"/>
+      <c r="J291" s="4"/>
+    </row>
+    <row r="292">
+      <c r="G292" s="4"/>
+      <c r="H292" s="4"/>
+      <c r="I292" s="4"/>
+      <c r="J292" s="4"/>
+    </row>
+    <row r="293">
+      <c r="G293" s="4"/>
+      <c r="H293" s="4"/>
+      <c r="I293" s="4"/>
+      <c r="J293" s="4"/>
+    </row>
+    <row r="294">
+      <c r="G294" s="4"/>
+      <c r="H294" s="4"/>
+      <c r="I294" s="4"/>
+      <c r="J294" s="4"/>
+    </row>
+    <row r="295">
+      <c r="G295" s="4"/>
+      <c r="H295" s="4"/>
+      <c r="I295" s="4"/>
+      <c r="J295" s="4"/>
+    </row>
+    <row r="296">
+      <c r="G296" s="4"/>
+      <c r="H296" s="4"/>
+      <c r="I296" s="4"/>
+      <c r="J296" s="4"/>
+    </row>
+    <row r="297">
+      <c r="G297" s="4"/>
+      <c r="H297" s="4"/>
+      <c r="I297" s="4"/>
+      <c r="J297" s="4"/>
+    </row>
+    <row r="298">
+      <c r="G298" s="4"/>
+      <c r="H298" s="4"/>
+      <c r="I298" s="4"/>
+      <c r="J298" s="4"/>
+    </row>
+    <row r="299">
+      <c r="G299" s="4"/>
+      <c r="H299" s="4"/>
+      <c r="I299" s="4"/>
+      <c r="J299" s="4"/>
+    </row>
+    <row r="300">
+      <c r="G300" s="4"/>
+      <c r="H300" s="4"/>
+      <c r="I300" s="4"/>
+      <c r="J300" s="4"/>
+    </row>
+    <row r="301">
+      <c r="G301" s="4"/>
+      <c r="H301" s="4"/>
+      <c r="I301" s="4"/>
+      <c r="J301" s="4"/>
+    </row>
+    <row r="302">
+      <c r="G302" s="4"/>
+      <c r="H302" s="4"/>
+      <c r="I302" s="4"/>
+      <c r="J302" s="4"/>
+    </row>
+    <row r="303">
+      <c r="G303" s="4"/>
+      <c r="H303" s="4"/>
+      <c r="I303" s="4"/>
+      <c r="J303" s="4"/>
+    </row>
+    <row r="304">
+      <c r="G304" s="4"/>
+      <c r="H304" s="4"/>
+      <c r="I304" s="4"/>
+      <c r="J304" s="4"/>
+    </row>
+    <row r="305">
+      <c r="G305" s="4"/>
+      <c r="H305" s="4"/>
+      <c r="I305" s="4"/>
+      <c r="J305" s="4"/>
+    </row>
+    <row r="306">
+      <c r="G306" s="4"/>
+      <c r="H306" s="4"/>
+      <c r="I306" s="4"/>
+      <c r="J306" s="4"/>
+    </row>
+    <row r="307">
+      <c r="G307" s="4"/>
+      <c r="H307" s="4"/>
+      <c r="I307" s="4"/>
+      <c r="J307" s="4"/>
+    </row>
+    <row r="308">
+      <c r="G308" s="4"/>
+      <c r="H308" s="4"/>
+      <c r="I308" s="4"/>
+      <c r="J308" s="4"/>
+    </row>
+    <row r="309">
+      <c r="G309" s="4"/>
+      <c r="H309" s="4"/>
+      <c r="I309" s="4"/>
+      <c r="J309" s="4"/>
+    </row>
+    <row r="310">
+      <c r="G310" s="4"/>
+      <c r="H310" s="4"/>
+      <c r="I310" s="4"/>
+      <c r="J310" s="4"/>
+    </row>
+    <row r="311">
+      <c r="G311" s="4"/>
+      <c r="H311" s="4"/>
+      <c r="I311" s="4"/>
+      <c r="J311" s="4"/>
+    </row>
+    <row r="312">
+      <c r="G312" s="4"/>
+      <c r="H312" s="4"/>
+      <c r="I312" s="4"/>
+      <c r="J312" s="4"/>
+    </row>
+    <row r="313">
+      <c r="G313" s="4"/>
+      <c r="H313" s="4"/>
+      <c r="I313" s="4"/>
+      <c r="J313" s="4"/>
+    </row>
+    <row r="314">
+      <c r="G314" s="4"/>
+      <c r="H314" s="4"/>
+      <c r="I314" s="4"/>
+      <c r="J314" s="4"/>
+    </row>
+    <row r="315">
+      <c r="G315" s="4"/>
+      <c r="H315" s="4"/>
+      <c r="I315" s="4"/>
+      <c r="J315" s="4"/>
+    </row>
+    <row r="316">
+      <c r="G316" s="4"/>
+      <c r="H316" s="4"/>
+      <c r="I316" s="4"/>
+      <c r="J316" s="4"/>
+    </row>
+    <row r="317">
+      <c r="G317" s="4"/>
+      <c r="H317" s="4"/>
+      <c r="I317" s="4"/>
+      <c r="J317" s="4"/>
+    </row>
+    <row r="318">
+      <c r="G318" s="4"/>
+      <c r="H318" s="4"/>
+      <c r="I318" s="4"/>
+      <c r="J318" s="4"/>
+    </row>
+    <row r="319">
+      <c r="G319" s="4"/>
+      <c r="H319" s="4"/>
+      <c r="I319" s="4"/>
+      <c r="J319" s="4"/>
+    </row>
+    <row r="320">
+      <c r="G320" s="4"/>
+      <c r="H320" s="4"/>
+      <c r="I320" s="4"/>
+      <c r="J320" s="4"/>
+    </row>
+    <row r="321">
+      <c r="G321" s="4"/>
+      <c r="H321" s="4"/>
+      <c r="I321" s="4"/>
+      <c r="J321" s="4"/>
+    </row>
+    <row r="322">
+      <c r="G322" s="4"/>
+      <c r="H322" s="4"/>
+      <c r="I322" s="4"/>
+      <c r="J322" s="4"/>
+    </row>
+    <row r="323">
+      <c r="G323" s="4"/>
+      <c r="H323" s="4"/>
+      <c r="I323" s="4"/>
+      <c r="J323" s="4"/>
+    </row>
+    <row r="324">
+      <c r="G324" s="4"/>
+      <c r="H324" s="4"/>
+      <c r="I324" s="4"/>
+      <c r="J324" s="4"/>
+    </row>
+    <row r="325">
+      <c r="G325" s="4"/>
+      <c r="H325" s="4"/>
+      <c r="I325" s="4"/>
+      <c r="J325" s="4"/>
+    </row>
+    <row r="326">
+      <c r="G326" s="4"/>
+      <c r="H326" s="4"/>
+      <c r="I326" s="4"/>
+      <c r="J326" s="4"/>
+    </row>
+    <row r="327">
+      <c r="G327" s="4"/>
+      <c r="H327" s="4"/>
+      <c r="I327" s="4"/>
+      <c r="J327" s="4"/>
+    </row>
+    <row r="328">
+      <c r="G328" s="4"/>
+      <c r="H328" s="4"/>
+      <c r="I328" s="4"/>
+      <c r="J328" s="4"/>
+    </row>
+    <row r="329">
+      <c r="G329" s="4"/>
+      <c r="H329" s="4"/>
+      <c r="I329" s="4"/>
+      <c r="J329" s="4"/>
+    </row>
+    <row r="330">
+      <c r="G330" s="4"/>
+      <c r="H330" s="4"/>
+      <c r="I330" s="4"/>
+      <c r="J330" s="4"/>
+    </row>
+    <row r="331">
+      <c r="G331" s="4"/>
+      <c r="H331" s="4"/>
+      <c r="I331" s="4"/>
+      <c r="J331" s="4"/>
+    </row>
+    <row r="332">
+      <c r="G332" s="4"/>
+      <c r="H332" s="4"/>
+      <c r="I332" s="4"/>
+      <c r="J332" s="4"/>
+    </row>
+    <row r="333">
+      <c r="G333" s="4"/>
+      <c r="H333" s="4"/>
+      <c r="I333" s="4"/>
+      <c r="J333" s="4"/>
+    </row>
+    <row r="334">
+      <c r="G334" s="4"/>
+      <c r="H334" s="4"/>
+      <c r="I334" s="4"/>
+      <c r="J334" s="4"/>
+    </row>
+    <row r="335">
+      <c r="G335" s="4"/>
+      <c r="H335" s="4"/>
+      <c r="I335" s="4"/>
+      <c r="J335" s="4"/>
+    </row>
+    <row r="336">
+      <c r="G336" s="4"/>
+      <c r="H336" s="4"/>
+      <c r="I336" s="4"/>
+      <c r="J336" s="4"/>
+    </row>
+    <row r="337">
+      <c r="G337" s="4"/>
+      <c r="H337" s="4"/>
+      <c r="I337" s="4"/>
+      <c r="J337" s="4"/>
+    </row>
+    <row r="338">
+      <c r="G338" s="4"/>
+      <c r="H338" s="4"/>
+      <c r="I338" s="4"/>
+      <c r="J338" s="4"/>
+    </row>
+    <row r="339">
+      <c r="G339" s="4"/>
+      <c r="H339" s="4"/>
+      <c r="I339" s="4"/>
+      <c r="J339" s="4"/>
+    </row>
+    <row r="340">
+      <c r="G340" s="4"/>
+      <c r="H340" s="4"/>
+      <c r="I340" s="4"/>
+      <c r="J340" s="4"/>
+    </row>
+    <row r="341">
+      <c r="G341" s="4"/>
+      <c r="H341" s="4"/>
+      <c r="I341" s="4"/>
+      <c r="J341" s="4"/>
+    </row>
+    <row r="342">
+      <c r="G342" s="4"/>
+      <c r="H342" s="4"/>
+      <c r="I342" s="4"/>
+      <c r="J342" s="4"/>
+    </row>
+    <row r="343">
+      <c r="G343" s="4"/>
+      <c r="H343" s="4"/>
+      <c r="I343" s="4"/>
+      <c r="J343" s="4"/>
+    </row>
+    <row r="344">
+      <c r="G344" s="4"/>
+      <c r="H344" s="4"/>
+      <c r="I344" s="4"/>
+      <c r="J344" s="4"/>
+    </row>
+    <row r="345">
+      <c r="G345" s="4"/>
+      <c r="H345" s="4"/>
+      <c r="I345" s="4"/>
+      <c r="J345" s="4"/>
+    </row>
+    <row r="346">
+      <c r="G346" s="4"/>
+      <c r="H346" s="4"/>
+      <c r="I346" s="4"/>
+      <c r="J346" s="4"/>
+    </row>
+    <row r="347">
+      <c r="G347" s="4"/>
+      <c r="H347" s="4"/>
+      <c r="I347" s="4"/>
+      <c r="J347" s="4"/>
+    </row>
+    <row r="348">
+      <c r="G348" s="4"/>
+      <c r="H348" s="4"/>
+      <c r="I348" s="4"/>
+      <c r="J348" s="4"/>
+    </row>
+    <row r="349">
+      <c r="G349" s="4"/>
+      <c r="H349" s="4"/>
+      <c r="I349" s="4"/>
+      <c r="J349" s="4"/>
+    </row>
+    <row r="350">
+      <c r="G350" s="4"/>
+      <c r="H350" s="4"/>
+      <c r="I350" s="4"/>
+      <c r="J350" s="4"/>
+    </row>
+    <row r="351">
+      <c r="G351" s="4"/>
+      <c r="H351" s="4"/>
+      <c r="I351" s="4"/>
+      <c r="J351" s="4"/>
+    </row>
+    <row r="352">
+      <c r="G352" s="4"/>
+      <c r="H352" s="4"/>
+      <c r="I352" s="4"/>
+      <c r="J352" s="4"/>
+    </row>
+    <row r="353">
+      <c r="G353" s="4"/>
+      <c r="H353" s="4"/>
+      <c r="I353" s="4"/>
+      <c r="J353" s="4"/>
+    </row>
+    <row r="354">
+      <c r="G354" s="4"/>
+      <c r="H354" s="4"/>
+      <c r="I354" s="4"/>
+      <c r="J354" s="4"/>
+    </row>
+    <row r="355">
+      <c r="G355" s="4"/>
+      <c r="H355" s="4"/>
+      <c r="I355" s="4"/>
+      <c r="J355" s="4"/>
+    </row>
+    <row r="356">
+      <c r="G356" s="4"/>
+      <c r="H356" s="4"/>
+      <c r="I356" s="4"/>
+      <c r="J356" s="4"/>
+    </row>
+    <row r="357">
+      <c r="G357" s="4"/>
+      <c r="H357" s="4"/>
+      <c r="I357" s="4"/>
+      <c r="J357" s="4"/>
+    </row>
+    <row r="358">
+      <c r="G358" s="4"/>
+      <c r="H358" s="4"/>
+      <c r="I358" s="4"/>
+      <c r="J358" s="4"/>
+    </row>
+    <row r="359">
+      <c r="G359" s="4"/>
+      <c r="H359" s="4"/>
+      <c r="I359" s="4"/>
+      <c r="J359" s="4"/>
+    </row>
+    <row r="360">
+      <c r="G360" s="4"/>
+      <c r="H360" s="4"/>
+      <c r="I360" s="4"/>
+      <c r="J360" s="4"/>
+    </row>
+    <row r="361">
+      <c r="G361" s="4"/>
+      <c r="H361" s="4"/>
+      <c r="I361" s="4"/>
+      <c r="J361" s="4"/>
+    </row>
+    <row r="362">
+      <c r="G362" s="4"/>
+      <c r="H362" s="4"/>
+      <c r="I362" s="4"/>
+      <c r="J362" s="4"/>
+    </row>
+    <row r="363">
+      <c r="G363" s="4"/>
+      <c r="H363" s="4"/>
+      <c r="I363" s="4"/>
+      <c r="J363" s="4"/>
+    </row>
+    <row r="364">
+      <c r="G364" s="4"/>
+      <c r="H364" s="4"/>
+      <c r="I364" s="4"/>
+      <c r="J364" s="4"/>
+    </row>
+    <row r="365">
+      <c r="G365" s="4"/>
+      <c r="H365" s="4"/>
+      <c r="I365" s="4"/>
+      <c r="J365" s="4"/>
+    </row>
+    <row r="366">
+      <c r="G366" s="4"/>
+      <c r="H366" s="4"/>
+      <c r="I366" s="4"/>
+      <c r="J366" s="4"/>
+    </row>
+    <row r="367">
+      <c r="G367" s="4"/>
+      <c r="H367" s="4"/>
+      <c r="I367" s="4"/>
+      <c r="J367" s="4"/>
+    </row>
+    <row r="368">
+      <c r="G368" s="4"/>
+      <c r="H368" s="4"/>
+      <c r="I368" s="4"/>
+      <c r="J368" s="4"/>
+    </row>
+    <row r="369">
+      <c r="G369" s="4"/>
+      <c r="H369" s="4"/>
+      <c r="I369" s="4"/>
+      <c r="J369" s="4"/>
+    </row>
+    <row r="370">
+      <c r="G370" s="4"/>
+      <c r="H370" s="4"/>
+      <c r="I370" s="4"/>
+      <c r="J370" s="4"/>
+    </row>
+    <row r="371">
+      <c r="G371" s="4"/>
+      <c r="H371" s="4"/>
+      <c r="I371" s="4"/>
+      <c r="J371" s="4"/>
+    </row>
+    <row r="372">
+      <c r="G372" s="4"/>
+      <c r="H372" s="4"/>
+      <c r="I372" s="4"/>
+      <c r="J372" s="4"/>
+    </row>
+    <row r="373">
+      <c r="G373" s="4"/>
+      <c r="H373" s="4"/>
+      <c r="I373" s="4"/>
+      <c r="J373" s="4"/>
+    </row>
+    <row r="374">
+      <c r="G374" s="4"/>
+      <c r="H374" s="4"/>
+      <c r="I374" s="4"/>
+      <c r="J374" s="4"/>
+    </row>
+    <row r="375">
+      <c r="G375" s="4"/>
+      <c r="H375" s="4"/>
+      <c r="I375" s="4"/>
+      <c r="J375" s="4"/>
+    </row>
+    <row r="376">
+      <c r="G376" s="4"/>
+      <c r="H376" s="4"/>
+      <c r="I376" s="4"/>
+      <c r="J376" s="4"/>
+    </row>
+    <row r="377">
+      <c r="G377" s="4"/>
+      <c r="H377" s="4"/>
+      <c r="I377" s="4"/>
+      <c r="J377" s="4"/>
+    </row>
+    <row r="378">
+      <c r="G378" s="4"/>
+      <c r="H378" s="4"/>
+      <c r="I378" s="4"/>
+      <c r="J378" s="4"/>
+    </row>
+    <row r="379">
+      <c r="G379" s="4"/>
+      <c r="H379" s="4"/>
+      <c r="I379" s="4"/>
+      <c r="J379" s="4"/>
+    </row>
+    <row r="380">
+      <c r="G380" s="4"/>
+      <c r="H380" s="4"/>
+      <c r="I380" s="4"/>
+      <c r="J380" s="4"/>
+    </row>
+    <row r="381">
+      <c r="G381" s="4"/>
+      <c r="H381" s="4"/>
+      <c r="I381" s="4"/>
+      <c r="J381" s="4"/>
+    </row>
+    <row r="382">
+      <c r="G382" s="4"/>
+      <c r="H382" s="4"/>
+      <c r="I382" s="4"/>
+      <c r="J382" s="4"/>
+    </row>
+    <row r="383">
+      <c r="G383" s="4"/>
+      <c r="H383" s="4"/>
+      <c r="I383" s="4"/>
+      <c r="J383" s="4"/>
+    </row>
+    <row r="384">
+      <c r="G384" s="4"/>
+      <c r="H384" s="4"/>
+      <c r="I384" s="4"/>
+      <c r="J384" s="4"/>
+    </row>
+    <row r="385">
+      <c r="G385" s="4"/>
+      <c r="H385" s="4"/>
+      <c r="I385" s="4"/>
+      <c r="J385" s="4"/>
+    </row>
+    <row r="386">
+      <c r="G386" s="4"/>
+      <c r="H386" s="4"/>
+      <c r="I386" s="4"/>
+      <c r="J386" s="4"/>
+    </row>
+    <row r="387">
+      <c r="G387" s="4"/>
+      <c r="H387" s="4"/>
+      <c r="I387" s="4"/>
+      <c r="J387" s="4"/>
+    </row>
+    <row r="388">
+      <c r="G388" s="4"/>
+      <c r="H388" s="4"/>
+      <c r="I388" s="4"/>
+      <c r="J388" s="4"/>
+    </row>
+    <row r="389">
+      <c r="G389" s="4"/>
+      <c r="H389" s="4"/>
+      <c r="I389" s="4"/>
+      <c r="J389" s="4"/>
+    </row>
+    <row r="390">
+      <c r="G390" s="4"/>
+      <c r="H390" s="4"/>
+      <c r="I390" s="4"/>
+      <c r="J390" s="4"/>
+    </row>
+    <row r="391">
+      <c r="G391" s="4"/>
+      <c r="H391" s="4"/>
+      <c r="I391" s="4"/>
+      <c r="J391" s="4"/>
+    </row>
+    <row r="392">
+      <c r="G392" s="4"/>
+      <c r="H392" s="4"/>
+      <c r="I392" s="4"/>
+      <c r="J392" s="4"/>
+    </row>
+    <row r="393">
+      <c r="G393" s="4"/>
+      <c r="H393" s="4"/>
+      <c r="I393" s="4"/>
+      <c r="J393" s="4"/>
+    </row>
+    <row r="394">
+      <c r="G394" s="4"/>
+      <c r="H394" s="4"/>
+      <c r="I394" s="4"/>
+      <c r="J394" s="4"/>
+    </row>
+    <row r="395">
+      <c r="G395" s="4"/>
+      <c r="H395" s="4"/>
+      <c r="I395" s="4"/>
+      <c r="J395" s="4"/>
+    </row>
+    <row r="396">
+      <c r="G396" s="4"/>
+      <c r="H396" s="4"/>
+      <c r="I396" s="4"/>
+      <c r="J396" s="4"/>
+    </row>
+    <row r="397">
+      <c r="G397" s="4"/>
+      <c r="H397" s="4"/>
+      <c r="I397" s="4"/>
+      <c r="J397" s="4"/>
+    </row>
+    <row r="398">
+      <c r="G398" s="4"/>
+      <c r="H398" s="4"/>
+      <c r="I398" s="4"/>
+      <c r="J398" s="4"/>
+    </row>
+    <row r="399">
+      <c r="G399" s="4"/>
+      <c r="H399" s="4"/>
+      <c r="I399" s="4"/>
+      <c r="J399" s="4"/>
+    </row>
+    <row r="400">
+      <c r="G400" s="4"/>
+      <c r="H400" s="4"/>
+      <c r="I400" s="4"/>
+      <c r="J400" s="4"/>
+    </row>
+    <row r="401">
+      <c r="G401" s="4"/>
+      <c r="H401" s="4"/>
+      <c r="I401" s="4"/>
+      <c r="J401" s="4"/>
+    </row>
+    <row r="402">
+      <c r="G402" s="4"/>
+      <c r="H402" s="4"/>
+      <c r="I402" s="4"/>
+      <c r="J402" s="4"/>
+    </row>
+    <row r="403">
+      <c r="G403" s="4"/>
+      <c r="H403" s="4"/>
+      <c r="I403" s="4"/>
+      <c r="J403" s="4"/>
+    </row>
+    <row r="404">
+      <c r="G404" s="4"/>
+      <c r="H404" s="4"/>
+      <c r="I404" s="4"/>
+      <c r="J404" s="4"/>
+    </row>
+    <row r="405">
+      <c r="G405" s="4"/>
+      <c r="H405" s="4"/>
+      <c r="I405" s="4"/>
+      <c r="J405" s="4"/>
+    </row>
+    <row r="406">
+      <c r="G406" s="4"/>
+      <c r="H406" s="4"/>
+      <c r="I406" s="4"/>
+      <c r="J406" s="4"/>
+    </row>
+    <row r="407">
+      <c r="G407" s="4"/>
+      <c r="H407" s="4"/>
+      <c r="I407" s="4"/>
+      <c r="J407" s="4"/>
+    </row>
+    <row r="408">
+      <c r="G408" s="4"/>
+      <c r="H408" s="4"/>
+      <c r="I408" s="4"/>
+      <c r="J408" s="4"/>
+    </row>
+    <row r="409">
+      <c r="G409" s="4"/>
+      <c r="H409" s="4"/>
+      <c r="I409" s="4"/>
+      <c r="J409" s="4"/>
+    </row>
+    <row r="410">
+      <c r="G410" s="4"/>
+      <c r="H410" s="4"/>
+      <c r="I410" s="4"/>
+      <c r="J410" s="4"/>
+    </row>
+    <row r="411">
+      <c r="G411" s="4"/>
+      <c r="H411" s="4"/>
+      <c r="I411" s="4"/>
+      <c r="J411" s="4"/>
+    </row>
+    <row r="412">
+      <c r="G412" s="4"/>
+      <c r="H412" s="4"/>
+      <c r="I412" s="4"/>
+      <c r="J412" s="4"/>
+    </row>
+    <row r="413">
+      <c r="G413" s="4"/>
+      <c r="H413" s="4"/>
+      <c r="I413" s="4"/>
+      <c r="J413" s="4"/>
+    </row>
+    <row r="414">
+      <c r="G414" s="4"/>
+      <c r="H414" s="4"/>
+      <c r="I414" s="4"/>
+      <c r="J414" s="4"/>
+    </row>
+    <row r="415">
+      <c r="G415" s="4"/>
+      <c r="H415" s="4"/>
+      <c r="I415" s="4"/>
+      <c r="J415" s="4"/>
+    </row>
+    <row r="416">
+      <c r="G416" s="4"/>
+      <c r="H416" s="4"/>
+      <c r="I416" s="4"/>
+      <c r="J416" s="4"/>
+    </row>
+    <row r="417">
+      <c r="G417" s="4"/>
+      <c r="H417" s="4"/>
+      <c r="I417" s="4"/>
+      <c r="J417" s="4"/>
+    </row>
+    <row r="418">
+      <c r="G418" s="4"/>
+      <c r="H418" s="4"/>
+      <c r="I418" s="4"/>
+      <c r="J418" s="4"/>
+    </row>
+    <row r="419">
+      <c r="G419" s="4"/>
+      <c r="H419" s="4"/>
+      <c r="I419" s="4"/>
+      <c r="J419" s="4"/>
+    </row>
+    <row r="420">
+      <c r="G420" s="4"/>
+      <c r="H420" s="4"/>
+      <c r="I420" s="4"/>
+      <c r="J420" s="4"/>
+    </row>
+    <row r="421">
+      <c r="G421" s="4"/>
+      <c r="H421" s="4"/>
+      <c r="I421" s="4"/>
+      <c r="J421" s="4"/>
+    </row>
+    <row r="422">
+      <c r="G422" s="4"/>
+      <c r="H422" s="4"/>
+      <c r="I422" s="4"/>
+      <c r="J422" s="4"/>
+    </row>
+    <row r="423">
+      <c r="G423" s="4"/>
+      <c r="H423" s="4"/>
+      <c r="I423" s="4"/>
+      <c r="J423" s="4"/>
+    </row>
+    <row r="424">
+      <c r="G424" s="4"/>
+      <c r="H424" s="4"/>
+      <c r="I424" s="4"/>
+      <c r="J424" s="4"/>
+    </row>
+    <row r="425">
+      <c r="G425" s="4"/>
+      <c r="H425" s="4"/>
+      <c r="I425" s="4"/>
+      <c r="J425" s="4"/>
+    </row>
+    <row r="426">
+      <c r="G426" s="4"/>
+      <c r="H426" s="4"/>
+      <c r="I426" s="4"/>
+      <c r="J426" s="4"/>
+    </row>
+    <row r="427">
+      <c r="G427" s="4"/>
+      <c r="H427" s="4"/>
+      <c r="I427" s="4"/>
+      <c r="J427" s="4"/>
+    </row>
+    <row r="428">
+      <c r="G428" s="4"/>
+      <c r="H428" s="4"/>
+      <c r="I428" s="4"/>
+      <c r="J428" s="4"/>
+    </row>
+    <row r="429">
+      <c r="G429" s="4"/>
+      <c r="H429" s="4"/>
+      <c r="I429" s="4"/>
+      <c r="J429" s="4"/>
+    </row>
+    <row r="430">
+      <c r="G430" s="4"/>
+      <c r="H430" s="4"/>
+      <c r="I430" s="4"/>
+      <c r="J430" s="4"/>
+    </row>
+    <row r="431">
+      <c r="G431" s="4"/>
+      <c r="H431" s="4"/>
+      <c r="I431" s="4"/>
+      <c r="J431" s="4"/>
+    </row>
+    <row r="432">
+      <c r="G432" s="4"/>
+      <c r="H432" s="4"/>
+      <c r="I432" s="4"/>
+      <c r="J432" s="4"/>
+    </row>
+    <row r="433">
+      <c r="G433" s="4"/>
+      <c r="H433" s="4"/>
+      <c r="I433" s="4"/>
+      <c r="J433" s="4"/>
+    </row>
+    <row r="434">
+      <c r="G434" s="4"/>
+      <c r="H434" s="4"/>
+      <c r="I434" s="4"/>
+      <c r="J434" s="4"/>
+    </row>
+    <row r="435">
+      <c r="G435" s="4"/>
+      <c r="H435" s="4"/>
+      <c r="I435" s="4"/>
+      <c r="J435" s="4"/>
+    </row>
+    <row r="436">
+      <c r="G436" s="4"/>
+      <c r="H436" s="4"/>
+      <c r="I436" s="4"/>
+      <c r="J436" s="4"/>
+    </row>
+    <row r="437">
+      <c r="G437" s="4"/>
+      <c r="H437" s="4"/>
+      <c r="I437" s="4"/>
+      <c r="J437" s="4"/>
+    </row>
+    <row r="438">
+      <c r="G438" s="4"/>
+      <c r="H438" s="4"/>
+      <c r="I438" s="4"/>
+      <c r="J438" s="4"/>
+    </row>
+    <row r="439">
+      <c r="G439" s="4"/>
+      <c r="H439" s="4"/>
+      <c r="I439" s="4"/>
+      <c r="J439" s="4"/>
+    </row>
+    <row r="440">
+      <c r="G440" s="4"/>
+      <c r="H440" s="4"/>
+      <c r="I440" s="4"/>
+      <c r="J440" s="4"/>
+    </row>
+    <row r="441">
+      <c r="G441" s="4"/>
+      <c r="H441" s="4"/>
+      <c r="I441" s="4"/>
+      <c r="J441" s="4"/>
+    </row>
+    <row r="442">
+      <c r="G442" s="4"/>
+      <c r="H442" s="4"/>
+      <c r="I442" s="4"/>
+      <c r="J442" s="4"/>
+    </row>
+    <row r="443">
+      <c r="G443" s="4"/>
+      <c r="H443" s="4"/>
+      <c r="I443" s="4"/>
+      <c r="J443" s="4"/>
+    </row>
+    <row r="444">
+      <c r="G444" s="4"/>
+      <c r="H444" s="4"/>
+      <c r="I444" s="4"/>
+      <c r="J444" s="4"/>
+    </row>
+    <row r="445">
+      <c r="G445" s="4"/>
+      <c r="H445" s="4"/>
+      <c r="I445" s="4"/>
+      <c r="J445" s="4"/>
+    </row>
+    <row r="446">
+      <c r="G446" s="4"/>
+      <c r="H446" s="4"/>
+      <c r="I446" s="4"/>
+      <c r="J446" s="4"/>
+    </row>
+    <row r="447">
+      <c r="G447" s="4"/>
+      <c r="H447" s="4"/>
+      <c r="I447" s="4"/>
+      <c r="J447" s="4"/>
+    </row>
+    <row r="448">
+      <c r="G448" s="4"/>
+      <c r="H448" s="4"/>
+      <c r="I448" s="4"/>
+      <c r="J448" s="4"/>
+    </row>
+    <row r="449">
+      <c r="G449" s="4"/>
+      <c r="H449" s="4"/>
+      <c r="I449" s="4"/>
+      <c r="J449" s="4"/>
+    </row>
+    <row r="450">
+      <c r="G450" s="4"/>
+      <c r="H450" s="4"/>
+      <c r="I450" s="4"/>
+      <c r="J450" s="4"/>
+    </row>
+    <row r="451">
+      <c r="G451" s="4"/>
+      <c r="H451" s="4"/>
+      <c r="I451" s="4"/>
+      <c r="J451" s="4"/>
+    </row>
+    <row r="452">
+      <c r="G452" s="4"/>
+      <c r="H452" s="4"/>
+      <c r="I452" s="4"/>
+      <c r="J452" s="4"/>
+    </row>
+    <row r="453">
+      <c r="G453" s="4"/>
+      <c r="H453" s="4"/>
+      <c r="I453" s="4"/>
+      <c r="J453" s="4"/>
+    </row>
+    <row r="454">
+      <c r="G454" s="4"/>
+      <c r="H454" s="4"/>
+      <c r="I454" s="4"/>
+      <c r="J454" s="4"/>
+    </row>
+    <row r="455">
+      <c r="G455" s="4"/>
+      <c r="H455" s="4"/>
+      <c r="I455" s="4"/>
+      <c r="J455" s="4"/>
+    </row>
+    <row r="456">
+      <c r="G456" s="4"/>
+      <c r="H456" s="4"/>
+      <c r="I456" s="4"/>
+      <c r="J456" s="4"/>
+    </row>
+    <row r="457">
+      <c r="G457" s="4"/>
+      <c r="H457" s="4"/>
+      <c r="I457" s="4"/>
+      <c r="J457" s="4"/>
+    </row>
+    <row r="458">
+      <c r="G458" s="4"/>
+      <c r="H458" s="4"/>
+      <c r="I458" s="4"/>
+      <c r="J458" s="4"/>
+    </row>
+    <row r="459">
+      <c r="G459" s="4"/>
+      <c r="H459" s="4"/>
+      <c r="I459" s="4"/>
+      <c r="J459" s="4"/>
+    </row>
+    <row r="460">
+      <c r="G460" s="4"/>
+      <c r="H460" s="4"/>
+      <c r="I460" s="4"/>
+      <c r="J460" s="4"/>
+    </row>
+    <row r="461">
+      <c r="G461" s="4"/>
+      <c r="H461" s="4"/>
+      <c r="I461" s="4"/>
+      <c r="J461" s="4"/>
+    </row>
+    <row r="462">
+      <c r="G462" s="4"/>
+      <c r="H462" s="4"/>
+      <c r="I462" s="4"/>
+      <c r="J462" s="4"/>
+    </row>
+    <row r="463">
+      <c r="G463" s="4"/>
+      <c r="H463" s="4"/>
+      <c r="I463" s="4"/>
+      <c r="J463" s="4"/>
+    </row>
+    <row r="464">
+      <c r="G464" s="4"/>
+      <c r="H464" s="4"/>
+      <c r="I464" s="4"/>
+      <c r="J464" s="4"/>
+    </row>
+    <row r="465">
+      <c r="G465" s="4"/>
+      <c r="H465" s="4"/>
+      <c r="I465" s="4"/>
+      <c r="J465" s="4"/>
+    </row>
+    <row r="466">
+      <c r="G466" s="4"/>
+      <c r="H466" s="4"/>
+      <c r="I466" s="4"/>
+      <c r="J466" s="4"/>
+    </row>
+    <row r="467">
+      <c r="G467" s="4"/>
+      <c r="H467" s="4"/>
+      <c r="I467" s="4"/>
+      <c r="J467" s="4"/>
+    </row>
+    <row r="468">
+      <c r="G468" s="4"/>
+      <c r="H468" s="4"/>
+      <c r="I468" s="4"/>
+      <c r="J468" s="4"/>
+    </row>
+    <row r="469">
+      <c r="G469" s="4"/>
+      <c r="H469" s="4"/>
+      <c r="I469" s="4"/>
+      <c r="J469" s="4"/>
+    </row>
+    <row r="470">
+      <c r="G470" s="4"/>
+      <c r="H470" s="4"/>
+      <c r="I470" s="4"/>
+      <c r="J470" s="4"/>
+    </row>
+    <row r="471">
+      <c r="G471" s="4"/>
+      <c r="H471" s="4"/>
+      <c r="I471" s="4"/>
+      <c r="J471" s="4"/>
+    </row>
+    <row r="472">
+      <c r="G472" s="4"/>
+      <c r="H472" s="4"/>
+      <c r="I472" s="4"/>
+      <c r="J472" s="4"/>
+    </row>
+    <row r="473">
+      <c r="G473" s="4"/>
+      <c r="H473" s="4"/>
+      <c r="I473" s="4"/>
+      <c r="J473" s="4"/>
+    </row>
+    <row r="474">
+      <c r="G474" s="4"/>
+      <c r="H474" s="4"/>
+      <c r="I474" s="4"/>
+      <c r="J474" s="4"/>
+    </row>
+    <row r="475">
+      <c r="G475" s="4"/>
+      <c r="H475" s="4"/>
+      <c r="I475" s="4"/>
+      <c r="J475" s="4"/>
+    </row>
+    <row r="476">
+      <c r="G476" s="4"/>
+      <c r="H476" s="4"/>
+      <c r="I476" s="4"/>
+      <c r="J476" s="4"/>
+    </row>
+    <row r="477">
+      <c r="G477" s="4"/>
+      <c r="H477" s="4"/>
+      <c r="I477" s="4"/>
+      <c r="J477" s="4"/>
+    </row>
+    <row r="478">
+      <c r="G478" s="4"/>
+      <c r="H478" s="4"/>
+      <c r="I478" s="4"/>
+      <c r="J478" s="4"/>
+    </row>
+    <row r="479">
+      <c r="G479" s="4"/>
+      <c r="H479" s="4"/>
+      <c r="I479" s="4"/>
+      <c r="J479" s="4"/>
+    </row>
+    <row r="480">
+      <c r="G480" s="4"/>
+      <c r="H480" s="4"/>
+      <c r="I480" s="4"/>
+      <c r="J480" s="4"/>
+    </row>
+    <row r="481">
+      <c r="G481" s="4"/>
+      <c r="H481" s="4"/>
+      <c r="I481" s="4"/>
+      <c r="J481" s="4"/>
+    </row>
+    <row r="482">
+      <c r="G482" s="4"/>
+      <c r="H482" s="4"/>
+      <c r="I482" s="4"/>
+      <c r="J482" s="4"/>
+    </row>
+    <row r="483">
+      <c r="G483" s="4"/>
+      <c r="H483" s="4"/>
+      <c r="I483" s="4"/>
+      <c r="J483" s="4"/>
+    </row>
+    <row r="484">
+      <c r="G484" s="4"/>
+      <c r="H484" s="4"/>
+      <c r="I484" s="4"/>
+      <c r="J484" s="4"/>
+    </row>
+    <row r="485">
+      <c r="G485" s="4"/>
+      <c r="H485" s="4"/>
+      <c r="I485" s="4"/>
+      <c r="J485" s="4"/>
+    </row>
+    <row r="486">
+      <c r="G486" s="4"/>
+      <c r="H486" s="4"/>
+      <c r="I486" s="4"/>
+      <c r="J486" s="4"/>
+    </row>
+    <row r="487">
+      <c r="G487" s="4"/>
+      <c r="H487" s="4"/>
+      <c r="I487" s="4"/>
+      <c r="J487" s="4"/>
+    </row>
+    <row r="488">
+      <c r="G488" s="4"/>
+      <c r="H488" s="4"/>
+      <c r="I488" s="4"/>
+      <c r="J488" s="4"/>
+    </row>
+    <row r="489">
+      <c r="G489" s="4"/>
+      <c r="H489" s="4"/>
+      <c r="I489" s="4"/>
+      <c r="J489" s="4"/>
+    </row>
+    <row r="490">
+      <c r="G490" s="4"/>
+      <c r="H490" s="4"/>
+      <c r="I490" s="4"/>
+      <c r="J490" s="4"/>
+    </row>
+    <row r="491">
+      <c r="G491" s="4"/>
+      <c r="H491" s="4"/>
+      <c r="I491" s="4"/>
+      <c r="J491" s="4"/>
+    </row>
+    <row r="492">
+      <c r="G492" s="4"/>
+      <c r="H492" s="4"/>
+      <c r="I492" s="4"/>
+      <c r="J492" s="4"/>
+    </row>
+    <row r="493">
+      <c r="G493" s="4"/>
+      <c r="H493" s="4"/>
+      <c r="I493" s="4"/>
+      <c r="J493" s="4"/>
+    </row>
+    <row r="494">
+      <c r="G494" s="4"/>
+      <c r="H494" s="4"/>
+      <c r="I494" s="4"/>
+      <c r="J494" s="4"/>
+    </row>
+    <row r="495">
+      <c r="G495" s="4"/>
+      <c r="H495" s="4"/>
+      <c r="I495" s="4"/>
+      <c r="J495" s="4"/>
+    </row>
+    <row r="496">
+      <c r="G496" s="4"/>
+      <c r="H496" s="4"/>
+      <c r="I496" s="4"/>
+      <c r="J496" s="4"/>
+    </row>
+    <row r="497">
+      <c r="G497" s="4"/>
+      <c r="H497" s="4"/>
+      <c r="I497" s="4"/>
+      <c r="J497" s="4"/>
+    </row>
+    <row r="498">
+      <c r="G498" s="4"/>
+      <c r="H498" s="4"/>
+      <c r="I498" s="4"/>
+      <c r="J498" s="4"/>
+    </row>
+    <row r="499">
+      <c r="G499" s="4"/>
+      <c r="H499" s="4"/>
+      <c r="I499" s="4"/>
+      <c r="J499" s="4"/>
+    </row>
+    <row r="500">
+      <c r="G500" s="4"/>
+      <c r="H500" s="4"/>
+      <c r="I500" s="4"/>
+      <c r="J500" s="4"/>
+    </row>
+    <row r="501">
+      <c r="G501" s="4"/>
+      <c r="H501" s="4"/>
+      <c r="I501" s="4"/>
+      <c r="J501" s="4"/>
+    </row>
+    <row r="502">
+      <c r="G502" s="4"/>
+      <c r="H502" s="4"/>
+      <c r="I502" s="4"/>
+      <c r="J502" s="4"/>
+    </row>
+    <row r="503">
+      <c r="G503" s="4"/>
+      <c r="H503" s="4"/>
+      <c r="I503" s="4"/>
+      <c r="J503" s="4"/>
+    </row>
+    <row r="504">
+      <c r="G504" s="4"/>
+      <c r="H504" s="4"/>
+      <c r="I504" s="4"/>
+      <c r="J504" s="4"/>
+    </row>
+    <row r="505">
+      <c r="G505" s="4"/>
+      <c r="H505" s="4"/>
+      <c r="I505" s="4"/>
+      <c r="J505" s="4"/>
+    </row>
+    <row r="506">
+      <c r="G506" s="4"/>
+      <c r="H506" s="4"/>
+      <c r="I506" s="4"/>
+      <c r="J506" s="4"/>
+    </row>
+    <row r="507">
+      <c r="G507" s="4"/>
+      <c r="H507" s="4"/>
+      <c r="I507" s="4"/>
+      <c r="J507" s="4"/>
+    </row>
+    <row r="508">
+      <c r="G508" s="4"/>
+      <c r="H508" s="4"/>
+      <c r="I508" s="4"/>
+      <c r="J508" s="4"/>
+    </row>
+    <row r="509">
+      <c r="G509" s="4"/>
+      <c r="H509" s="4"/>
+      <c r="I509" s="4"/>
+      <c r="J509" s="4"/>
+    </row>
+    <row r="510">
+      <c r="G510" s="4"/>
+      <c r="H510" s="4"/>
+      <c r="I510" s="4"/>
+      <c r="J510" s="4"/>
+    </row>
+    <row r="511">
+      <c r="G511" s="4"/>
+      <c r="H511" s="4"/>
+      <c r="I511" s="4"/>
+      <c r="J511" s="4"/>
+    </row>
+    <row r="512">
+      <c r="G512" s="4"/>
+      <c r="H512" s="4"/>
+      <c r="I512" s="4"/>
+      <c r="J512" s="4"/>
+    </row>
+    <row r="513">
+      <c r="G513" s="4"/>
+      <c r="H513" s="4"/>
+      <c r="I513" s="4"/>
+      <c r="J513" s="4"/>
+    </row>
+    <row r="514">
+      <c r="G514" s="4"/>
+      <c r="H514" s="4"/>
+      <c r="I514" s="4"/>
+      <c r="J514" s="4"/>
+    </row>
+    <row r="515">
+      <c r="G515" s="4"/>
+      <c r="H515" s="4"/>
+      <c r="I515" s="4"/>
+      <c r="J515" s="4"/>
+    </row>
+    <row r="516">
+      <c r="G516" s="4"/>
+      <c r="H516" s="4"/>
+      <c r="I516" s="4"/>
+      <c r="J516" s="4"/>
+    </row>
+    <row r="517">
+      <c r="G517" s="4"/>
+      <c r="H517" s="4"/>
+      <c r="I517" s="4"/>
+      <c r="J517" s="4"/>
+    </row>
+    <row r="518">
+      <c r="G518" s="4"/>
+      <c r="H518" s="4"/>
+      <c r="I518" s="4"/>
+      <c r="J518" s="4"/>
+    </row>
+    <row r="519">
+      <c r="G519" s="4"/>
+      <c r="H519" s="4"/>
+      <c r="I519" s="4"/>
+      <c r="J519" s="4"/>
+    </row>
+    <row r="520">
+      <c r="G520" s="4"/>
+      <c r="H520" s="4"/>
+      <c r="I520" s="4"/>
+      <c r="J520" s="4"/>
+    </row>
+    <row r="521">
+      <c r="G521" s="4"/>
+      <c r="H521" s="4"/>
+      <c r="I521" s="4"/>
+      <c r="J521" s="4"/>
+    </row>
+    <row r="522">
+      <c r="G522" s="4"/>
+      <c r="H522" s="4"/>
+      <c r="I522" s="4"/>
+      <c r="J522" s="4"/>
+    </row>
+    <row r="523">
+      <c r="G523" s="4"/>
+      <c r="H523" s="4"/>
+      <c r="I523" s="4"/>
+      <c r="J523" s="4"/>
+    </row>
+    <row r="524">
+      <c r="G524" s="4"/>
+      <c r="H524" s="4"/>
+      <c r="I524" s="4"/>
+      <c r="J524" s="4"/>
+    </row>
+    <row r="525">
+      <c r="G525" s="4"/>
+      <c r="H525" s="4"/>
+      <c r="I525" s="4"/>
+      <c r="J525" s="4"/>
+    </row>
+    <row r="526">
+      <c r="G526" s="4"/>
+      <c r="H526" s="4"/>
+      <c r="I526" s="4"/>
+      <c r="J526" s="4"/>
+    </row>
+    <row r="527">
+      <c r="G527" s="4"/>
+      <c r="H527" s="4"/>
+      <c r="I527" s="4"/>
+      <c r="J527" s="4"/>
+    </row>
+    <row r="528">
+      <c r="G528" s="4"/>
+      <c r="H528" s="4"/>
+      <c r="I528" s="4"/>
+      <c r="J528" s="4"/>
+    </row>
+    <row r="529">
+      <c r="G529" s="4"/>
+      <c r="H529" s="4"/>
+      <c r="I529" s="4"/>
+      <c r="J529" s="4"/>
+    </row>
+    <row r="530">
+      <c r="G530" s="4"/>
+      <c r="H530" s="4"/>
+      <c r="I530" s="4"/>
+      <c r="J530" s="4"/>
+    </row>
+    <row r="531">
+      <c r="G531" s="4"/>
+      <c r="H531" s="4"/>
+      <c r="I531" s="4"/>
+      <c r="J531" s="4"/>
+    </row>
+    <row r="532">
+      <c r="G532" s="4"/>
+      <c r="H532" s="4"/>
+      <c r="I532" s="4"/>
+      <c r="J532" s="4"/>
+    </row>
+    <row r="533">
+      <c r="G533" s="4"/>
+      <c r="H533" s="4"/>
+      <c r="I533" s="4"/>
+      <c r="J533" s="4"/>
+    </row>
+    <row r="534">
+      <c r="G534" s="4"/>
+      <c r="H534" s="4"/>
+      <c r="I534" s="4"/>
+      <c r="J534" s="4"/>
+    </row>
+    <row r="535">
+      <c r="G535" s="4"/>
+      <c r="H535" s="4"/>
+      <c r="I535" s="4"/>
+      <c r="J535" s="4"/>
+    </row>
+    <row r="536">
+      <c r="G536" s="4"/>
+      <c r="H536" s="4"/>
+      <c r="I536" s="4"/>
+      <c r="J536" s="4"/>
+    </row>
+    <row r="537">
+      <c r="G537" s="4"/>
+      <c r="H537" s="4"/>
+      <c r="I537" s="4"/>
+      <c r="J537" s="4"/>
+    </row>
+    <row r="538">
+      <c r="G538" s="4"/>
+      <c r="H538" s="4"/>
+      <c r="I538" s="4"/>
+      <c r="J538" s="4"/>
+    </row>
+    <row r="539">
+      <c r="G539" s="4"/>
+      <c r="H539" s="4"/>
+      <c r="I539" s="4"/>
+      <c r="J539" s="4"/>
+    </row>
+    <row r="540">
+      <c r="G540" s="4"/>
+      <c r="H540" s="4"/>
+      <c r="I540" s="4"/>
+      <c r="J540" s="4"/>
+    </row>
+    <row r="541">
+      <c r="G541" s="4"/>
+      <c r="H541" s="4"/>
+      <c r="I541" s="4"/>
+      <c r="J541" s="4"/>
+    </row>
+    <row r="542">
+      <c r="G542" s="4"/>
+      <c r="H542" s="4"/>
+      <c r="I542" s="4"/>
+      <c r="J542" s="4"/>
+    </row>
+    <row r="543">
+      <c r="G543" s="4"/>
+      <c r="H543" s="4"/>
+      <c r="I543" s="4"/>
+      <c r="J543" s="4"/>
+    </row>
+    <row r="544">
+      <c r="G544" s="4"/>
+      <c r="H544" s="4"/>
+      <c r="I544" s="4"/>
+      <c r="J544" s="4"/>
+    </row>
+    <row r="545">
+      <c r="G545" s="4"/>
+      <c r="H545" s="4"/>
+      <c r="I545" s="4"/>
+      <c r="J545" s="4"/>
+    </row>
+    <row r="546">
+      <c r="G546" s="4"/>
+      <c r="H546" s="4"/>
+      <c r="I546" s="4"/>
+      <c r="J546" s="4"/>
+    </row>
+    <row r="547">
+      <c r="G547" s="4"/>
+      <c r="H547" s="4"/>
+      <c r="I547" s="4"/>
+      <c r="J547" s="4"/>
+    </row>
+    <row r="548">
+      <c r="G548" s="4"/>
+      <c r="H548" s="4"/>
+      <c r="I548" s="4"/>
+      <c r="J548" s="4"/>
+    </row>
+    <row r="549">
+      <c r="G549" s="4"/>
+      <c r="H549" s="4"/>
+      <c r="I549" s="4"/>
+      <c r="J549" s="4"/>
+    </row>
+    <row r="550">
+      <c r="G550" s="4"/>
+      <c r="H550" s="4"/>
+      <c r="I550" s="4"/>
+      <c r="J550" s="4"/>
+    </row>
+    <row r="551">
+      <c r="G551" s="4"/>
+      <c r="H551" s="4"/>
+      <c r="I551" s="4"/>
+      <c r="J551" s="4"/>
+    </row>
+    <row r="552">
+      <c r="G552" s="4"/>
+      <c r="H552" s="4"/>
+      <c r="I552" s="4"/>
+      <c r="J552" s="4"/>
+    </row>
+    <row r="553">
+      <c r="G553" s="4"/>
+      <c r="H553" s="4"/>
+      <c r="I553" s="4"/>
+      <c r="J553" s="4"/>
+    </row>
+    <row r="554">
+      <c r="G554" s="4"/>
+      <c r="H554" s="4"/>
+      <c r="I554" s="4"/>
+      <c r="J554" s="4"/>
+    </row>
+    <row r="555">
+      <c r="G555" s="4"/>
+      <c r="H555" s="4"/>
+      <c r="I555" s="4"/>
+      <c r="J555" s="4"/>
+    </row>
+    <row r="556">
+      <c r="G556" s="4"/>
+      <c r="H556" s="4"/>
+      <c r="I556" s="4"/>
+      <c r="J556" s="4"/>
+    </row>
+    <row r="557">
+      <c r="G557" s="4"/>
+      <c r="H557" s="4"/>
+      <c r="I557" s="4"/>
+      <c r="J557" s="4"/>
+    </row>
+    <row r="558">
+      <c r="G558" s="4"/>
+      <c r="H558" s="4"/>
+      <c r="I558" s="4"/>
+      <c r="J558" s="4"/>
+    </row>
+    <row r="559">
+      <c r="G559" s="4"/>
+      <c r="H559" s="4"/>
+      <c r="I559" s="4"/>
+      <c r="J559" s="4"/>
+    </row>
+    <row r="560">
+      <c r="G560" s="4"/>
+      <c r="H560" s="4"/>
+      <c r="I560" s="4"/>
+      <c r="J560" s="4"/>
+    </row>
+    <row r="561">
+      <c r="G561" s="4"/>
+      <c r="H561" s="4"/>
+      <c r="I561" s="4"/>
+      <c r="J561" s="4"/>
+    </row>
+    <row r="562">
+      <c r="G562" s="4"/>
+      <c r="H562" s="4"/>
+      <c r="I562" s="4"/>
+      <c r="J562" s="4"/>
+    </row>
+    <row r="563">
+      <c r="G563" s="4"/>
+      <c r="H563" s="4"/>
+      <c r="I563" s="4"/>
+      <c r="J563" s="4"/>
+    </row>
+    <row r="564">
+      <c r="G564" s="4"/>
+      <c r="H564" s="4"/>
+      <c r="I564" s="4"/>
+      <c r="J564" s="4"/>
+    </row>
+    <row r="565">
+      <c r="G565" s="4"/>
+      <c r="H565" s="4"/>
+      <c r="I565" s="4"/>
+      <c r="J565" s="4"/>
+    </row>
+    <row r="566">
+      <c r="G566" s="4"/>
+      <c r="H566" s="4"/>
+      <c r="I566" s="4"/>
+      <c r="J566" s="4"/>
+    </row>
+    <row r="567">
+      <c r="G567" s="4"/>
+      <c r="H567" s="4"/>
+      <c r="I567" s="4"/>
+      <c r="J567" s="4"/>
+    </row>
+    <row r="568">
+      <c r="G568" s="4"/>
+      <c r="H568" s="4"/>
+      <c r="I568" s="4"/>
+      <c r="J568" s="4"/>
+    </row>
+    <row r="569">
+      <c r="G569" s="4"/>
+      <c r="H569" s="4"/>
+      <c r="I569" s="4"/>
+      <c r="J569" s="4"/>
+    </row>
+    <row r="570">
+      <c r="G570" s="4"/>
+      <c r="H570" s="4"/>
+      <c r="I570" s="4"/>
+      <c r="J570" s="4"/>
+    </row>
+    <row r="571">
+      <c r="G571" s="4"/>
+      <c r="H571" s="4"/>
+      <c r="I571" s="4"/>
+      <c r="J571" s="4"/>
+    </row>
+    <row r="572">
+      <c r="G572" s="4"/>
+      <c r="H572" s="4"/>
+      <c r="I572" s="4"/>
+      <c r="J572" s="4"/>
+    </row>
+    <row r="573">
+      <c r="G573" s="4"/>
+      <c r="H573" s="4"/>
+      <c r="I573" s="4"/>
+      <c r="J573" s="4"/>
+    </row>
+    <row r="574">
+      <c r="G574" s="4"/>
+      <c r="H574" s="4"/>
+      <c r="I574" s="4"/>
+      <c r="J574" s="4"/>
+    </row>
+    <row r="575">
+      <c r="G575" s="4"/>
+      <c r="H575" s="4"/>
+      <c r="I575" s="4"/>
+      <c r="J575" s="4"/>
+    </row>
+    <row r="576">
+      <c r="G576" s="4"/>
+      <c r="H576" s="4"/>
+      <c r="I576" s="4"/>
+      <c r="J576" s="4"/>
+    </row>
+    <row r="577">
+      <c r="G577" s="4"/>
+      <c r="H577" s="4"/>
+      <c r="I577" s="4"/>
+      <c r="J577" s="4"/>
+    </row>
+    <row r="578">
+      <c r="G578" s="4"/>
+      <c r="H578" s="4"/>
+      <c r="I578" s="4"/>
+      <c r="J578" s="4"/>
+    </row>
+    <row r="579">
+      <c r="G579" s="4"/>
+      <c r="H579" s="4"/>
+      <c r="I579" s="4"/>
+      <c r="J579" s="4"/>
+    </row>
+    <row r="580">
+      <c r="G580" s="4"/>
+      <c r="H580" s="4"/>
+      <c r="I580" s="4"/>
+      <c r="J580" s="4"/>
+    </row>
+    <row r="581">
+      <c r="G581" s="4"/>
+      <c r="H581" s="4"/>
+      <c r="I581" s="4"/>
+      <c r="J581" s="4"/>
+    </row>
+    <row r="582">
+      <c r="G582" s="4"/>
+      <c r="H582" s="4"/>
+      <c r="I582" s="4"/>
+      <c r="J582" s="4"/>
+    </row>
+    <row r="583">
+      <c r="G583" s="4"/>
+      <c r="H583" s="4"/>
+      <c r="I583" s="4"/>
+      <c r="J583" s="4"/>
+    </row>
+    <row r="584">
+      <c r="G584" s="4"/>
+      <c r="H584" s="4"/>
+      <c r="I584" s="4"/>
+      <c r="J584" s="4"/>
+    </row>
+    <row r="585">
+      <c r="G585" s="4"/>
+      <c r="H585" s="4"/>
+      <c r="I585" s="4"/>
+      <c r="J585" s="4"/>
+    </row>
+    <row r="586">
+      <c r="G586" s="4"/>
+      <c r="H586" s="4"/>
+      <c r="I586" s="4"/>
+      <c r="J586" s="4"/>
+    </row>
+    <row r="587">
+      <c r="G587" s="4"/>
+      <c r="H587" s="4"/>
+      <c r="I587" s="4"/>
+      <c r="J587" s="4"/>
+    </row>
+    <row r="588">
+      <c r="G588" s="4"/>
+      <c r="H588" s="4"/>
+      <c r="I588" s="4"/>
+      <c r="J588" s="4"/>
+    </row>
+    <row r="589">
+      <c r="G589" s="4"/>
+      <c r="H589" s="4"/>
+      <c r="I589" s="4"/>
+      <c r="J589" s="4"/>
+    </row>
+    <row r="590">
+      <c r="G590" s="4"/>
+      <c r="H590" s="4"/>
+      <c r="I590" s="4"/>
+      <c r="J590" s="4"/>
+    </row>
+    <row r="591">
+      <c r="G591" s="4"/>
+      <c r="H591" s="4"/>
+      <c r="I591" s="4"/>
+      <c r="J591" s="4"/>
+    </row>
+    <row r="592">
+      <c r="G592" s="4"/>
+      <c r="H592" s="4"/>
+      <c r="I592" s="4"/>
+      <c r="J592" s="4"/>
+    </row>
+    <row r="593">
+      <c r="G593" s="4"/>
+      <c r="H593" s="4"/>
+      <c r="I593" s="4"/>
+      <c r="J593" s="4"/>
+    </row>
+    <row r="594">
+      <c r="G594" s="4"/>
+      <c r="H594" s="4"/>
+      <c r="I594" s="4"/>
+      <c r="J594" s="4"/>
+    </row>
+    <row r="595">
+      <c r="G595" s="4"/>
+      <c r="H595" s="4"/>
+      <c r="I595" s="4"/>
+      <c r="J595" s="4"/>
+    </row>
+    <row r="596">
+      <c r="G596" s="4"/>
+      <c r="H596" s="4"/>
+      <c r="I596" s="4"/>
+      <c r="J596" s="4"/>
+    </row>
+    <row r="597">
+      <c r="G597" s="4"/>
+      <c r="H597" s="4"/>
+      <c r="I597" s="4"/>
+      <c r="J597" s="4"/>
+    </row>
+    <row r="598">
+      <c r="G598" s="4"/>
+      <c r="H598" s="4"/>
+      <c r="I598" s="4"/>
+      <c r="J598" s="4"/>
+    </row>
+    <row r="599">
+      <c r="G599" s="4"/>
+      <c r="H599" s="4"/>
+      <c r="I599" s="4"/>
+      <c r="J599" s="4"/>
+    </row>
+    <row r="600">
+      <c r="G600" s="4"/>
+      <c r="H600" s="4"/>
+      <c r="I600" s="4"/>
+      <c r="J600" s="4"/>
+    </row>
+    <row r="601">
+      <c r="G601" s="4"/>
+      <c r="H601" s="4"/>
+      <c r="I601" s="4"/>
+      <c r="J601" s="4"/>
+    </row>
+    <row r="602">
+      <c r="G602" s="4"/>
+      <c r="H602" s="4"/>
+      <c r="I602" s="4"/>
+      <c r="J602" s="4"/>
+    </row>
+    <row r="603">
+      <c r="G603" s="4"/>
+      <c r="H603" s="4"/>
+      <c r="I603" s="4"/>
+      <c r="J603" s="4"/>
+    </row>
+    <row r="604">
+      <c r="G604" s="4"/>
+      <c r="H604" s="4"/>
+      <c r="I604" s="4"/>
+      <c r="J604" s="4"/>
+    </row>
+    <row r="605">
+      <c r="G605" s="4"/>
+      <c r="H605" s="4"/>
+      <c r="I605" s="4"/>
+      <c r="J605" s="4"/>
+    </row>
+    <row r="606">
+      <c r="G606" s="4"/>
+      <c r="H606" s="4"/>
+      <c r="I606" s="4"/>
+      <c r="J606" s="4"/>
+    </row>
+    <row r="607">
+      <c r="G607" s="4"/>
+      <c r="H607" s="4"/>
+      <c r="I607" s="4"/>
+      <c r="J607" s="4"/>
+    </row>
+    <row r="608">
+      <c r="G608" s="4"/>
+      <c r="H608" s="4"/>
+      <c r="I608" s="4"/>
+      <c r="J608" s="4"/>
+    </row>
+    <row r="609">
+      <c r="G609" s="4"/>
+      <c r="H609" s="4"/>
+      <c r="I609" s="4"/>
+      <c r="J609" s="4"/>
+    </row>
+    <row r="610">
+      <c r="G610" s="4"/>
+      <c r="H610" s="4"/>
+      <c r="I610" s="4"/>
+      <c r="J610" s="4"/>
+    </row>
+    <row r="611">
+      <c r="G611" s="4"/>
+      <c r="H611" s="4"/>
+      <c r="I611" s="4"/>
+      <c r="J611" s="4"/>
+    </row>
+    <row r="612">
+      <c r="G612" s="4"/>
+      <c r="H612" s="4"/>
+      <c r="I612" s="4"/>
+      <c r="J612" s="4"/>
+    </row>
+    <row r="613">
+      <c r="G613" s="4"/>
+      <c r="H613" s="4"/>
+      <c r="I613" s="4"/>
+      <c r="J613" s="4"/>
+    </row>
+    <row r="614">
+      <c r="G614" s="4"/>
+      <c r="H614" s="4"/>
+      <c r="I614" s="4"/>
+      <c r="J614" s="4"/>
+    </row>
+    <row r="615">
+      <c r="G615" s="4"/>
+      <c r="H615" s="4"/>
+      <c r="I615" s="4"/>
+      <c r="J615" s="4"/>
+    </row>
+    <row r="616">
+      <c r="G616" s="4"/>
+      <c r="H616" s="4"/>
+      <c r="I616" s="4"/>
+      <c r="J616" s="4"/>
+    </row>
+    <row r="617">
+      <c r="G617" s="4"/>
+      <c r="H617" s="4"/>
+      <c r="I617" s="4"/>
+      <c r="J617" s="4"/>
+    </row>
+    <row r="618">
+      <c r="G618" s="4"/>
+      <c r="H618" s="4"/>
+      <c r="I618" s="4"/>
+      <c r="J618" s="4"/>
+    </row>
+    <row r="619">
+      <c r="G619" s="4"/>
+      <c r="H619" s="4"/>
+      <c r="I619" s="4"/>
+      <c r="J619" s="4"/>
+    </row>
+    <row r="620">
+      <c r="G620" s="4"/>
+      <c r="H620" s="4"/>
+      <c r="I620" s="4"/>
+      <c r="J620" s="4"/>
+    </row>
+    <row r="621">
+      <c r="G621" s="4"/>
+      <c r="H621" s="4"/>
+      <c r="I621" s="4"/>
+      <c r="J621" s="4"/>
+    </row>
+    <row r="622">
+      <c r="G622" s="4"/>
+      <c r="H622" s="4"/>
+      <c r="I622" s="4"/>
+      <c r="J622" s="4"/>
+    </row>
+    <row r="623">
+      <c r="G623" s="4"/>
+      <c r="H623" s="4"/>
+      <c r="I623" s="4"/>
+      <c r="J623" s="4"/>
+    </row>
+    <row r="624">
+      <c r="G624" s="4"/>
+      <c r="H624" s="4"/>
+      <c r="I624" s="4"/>
+      <c r="J624" s="4"/>
+    </row>
+    <row r="625">
+      <c r="G625" s="4"/>
+      <c r="H625" s="4"/>
+      <c r="I625" s="4"/>
+      <c r="J625" s="4"/>
+    </row>
+    <row r="626">
+      <c r="G626" s="4"/>
+      <c r="H626" s="4"/>
+      <c r="I626" s="4"/>
+      <c r="J626" s="4"/>
+    </row>
+    <row r="627">
+      <c r="G627" s="4"/>
+      <c r="H627" s="4"/>
+      <c r="I627" s="4"/>
+      <c r="J627" s="4"/>
+    </row>
+    <row r="628">
+      <c r="G628" s="4"/>
+      <c r="H628" s="4"/>
+      <c r="I628" s="4"/>
+      <c r="J628" s="4"/>
+    </row>
+    <row r="629">
+      <c r="G629" s="4"/>
+      <c r="H629" s="4"/>
+      <c r="I629" s="4"/>
+      <c r="J629" s="4"/>
+    </row>
+    <row r="630">
+      <c r="G630" s="4"/>
+      <c r="H630" s="4"/>
+      <c r="I630" s="4"/>
+      <c r="J630" s="4"/>
+    </row>
+    <row r="631">
+      <c r="G631" s="4"/>
+      <c r="H631" s="4"/>
+      <c r="I631" s="4"/>
+      <c r="J631" s="4"/>
+    </row>
+    <row r="632">
+      <c r="G632" s="4"/>
+      <c r="H632" s="4"/>
+      <c r="I632" s="4"/>
+      <c r="J632" s="4"/>
+    </row>
+    <row r="633">
+      <c r="G633" s="4"/>
+      <c r="H633" s="4"/>
+      <c r="I633" s="4"/>
+      <c r="J633" s="4"/>
+    </row>
+    <row r="634">
+      <c r="G634" s="4"/>
+      <c r="H634" s="4"/>
+      <c r="I634" s="4"/>
+      <c r="J634" s="4"/>
+    </row>
+    <row r="635">
+      <c r="G635" s="4"/>
+      <c r="H635" s="4"/>
+      <c r="I635" s="4"/>
+      <c r="J635" s="4"/>
+    </row>
+    <row r="636">
+      <c r="G636" s="4"/>
+      <c r="H636" s="4"/>
+      <c r="I636" s="4"/>
+      <c r="J636" s="4"/>
+    </row>
+    <row r="637">
+      <c r="G637" s="4"/>
+      <c r="H637" s="4"/>
+      <c r="I637" s="4"/>
+      <c r="J637" s="4"/>
+    </row>
+    <row r="638">
+      <c r="G638" s="4"/>
+      <c r="H638" s="4"/>
+      <c r="I638" s="4"/>
+      <c r="J638" s="4"/>
+    </row>
+    <row r="639">
+      <c r="G639" s="4"/>
+      <c r="H639" s="4"/>
+      <c r="I639" s="4"/>
+      <c r="J639" s="4"/>
+    </row>
+    <row r="640">
+      <c r="G640" s="4"/>
+      <c r="H640" s="4"/>
+      <c r="I640" s="4"/>
+      <c r="J640" s="4"/>
+    </row>
+    <row r="641">
+      <c r="G641" s="4"/>
+      <c r="H641" s="4"/>
+      <c r="I641" s="4"/>
+      <c r="J641" s="4"/>
+    </row>
+    <row r="642">
+      <c r="G642" s="4"/>
+      <c r="H642" s="4"/>
+      <c r="I642" s="4"/>
+      <c r="J642" s="4"/>
+    </row>
+    <row r="643">
+      <c r="G643" s="4"/>
+      <c r="H643" s="4"/>
+      <c r="I643" s="4"/>
+      <c r="J643" s="4"/>
+    </row>
+    <row r="644">
+      <c r="G644" s="4"/>
+      <c r="H644" s="4"/>
+      <c r="I644" s="4"/>
+      <c r="J644" s="4"/>
+    </row>
+    <row r="645">
+      <c r="G645" s="4"/>
+      <c r="H645" s="4"/>
+      <c r="I645" s="4"/>
+      <c r="J645" s="4"/>
+    </row>
+    <row r="646">
+      <c r="G646" s="4"/>
+      <c r="H646" s="4"/>
+      <c r="I646" s="4"/>
+      <c r="J646" s="4"/>
+    </row>
+    <row r="647">
+      <c r="G647" s="4"/>
+      <c r="H647" s="4"/>
+      <c r="I647" s="4"/>
+      <c r="J647" s="4"/>
+    </row>
+    <row r="648">
+      <c r="G648" s="4"/>
+      <c r="H648" s="4"/>
+      <c r="I648" s="4"/>
+      <c r="J648" s="4"/>
+    </row>
+    <row r="649">
+      <c r="G649" s="4"/>
+      <c r="H649" s="4"/>
+      <c r="I649" s="4"/>
+      <c r="J649" s="4"/>
+    </row>
+    <row r="650">
+      <c r="G650" s="4"/>
+      <c r="H650" s="4"/>
+      <c r="I650" s="4"/>
+      <c r="J650" s="4"/>
+    </row>
+    <row r="651">
+      <c r="G651" s="4"/>
+      <c r="H651" s="4"/>
+      <c r="I651" s="4"/>
+      <c r="J651" s="4"/>
+    </row>
+    <row r="652">
+      <c r="G652" s="4"/>
+      <c r="H652" s="4"/>
+      <c r="I652" s="4"/>
+      <c r="J652" s="4"/>
+    </row>
+    <row r="653">
+      <c r="G653" s="4"/>
+      <c r="H653" s="4"/>
+      <c r="I653" s="4"/>
+      <c r="J653" s="4"/>
+    </row>
+    <row r="654">
+      <c r="G654" s="4"/>
+      <c r="H654" s="4"/>
+      <c r="I654" s="4"/>
+      <c r="J654" s="4"/>
+    </row>
+    <row r="655">
+      <c r="G655" s="4"/>
+      <c r="H655" s="4"/>
+      <c r="I655" s="4"/>
+      <c r="J655" s="4"/>
+    </row>
+    <row r="656">
+      <c r="G656" s="4"/>
+      <c r="H656" s="4"/>
+      <c r="I656" s="4"/>
+      <c r="J656" s="4"/>
+    </row>
+    <row r="657">
+      <c r="G657" s="4"/>
+      <c r="H657" s="4"/>
+      <c r="I657" s="4"/>
+      <c r="J657" s="4"/>
+    </row>
+    <row r="658">
+      <c r="G658" s="4"/>
+      <c r="H658" s="4"/>
+      <c r="I658" s="4"/>
+      <c r="J658" s="4"/>
+    </row>
+    <row r="659">
+      <c r="G659" s="4"/>
+      <c r="H659" s="4"/>
+      <c r="I659" s="4"/>
+      <c r="J659" s="4"/>
+    </row>
+    <row r="660">
+      <c r="G660" s="4"/>
+      <c r="H660" s="4"/>
+      <c r="I660" s="4"/>
+      <c r="J660" s="4"/>
+    </row>
+    <row r="661">
+      <c r="G661" s="4"/>
+      <c r="H661" s="4"/>
+      <c r="I661" s="4"/>
+      <c r="J661" s="4"/>
+    </row>
+    <row r="662">
+      <c r="G662" s="4"/>
+      <c r="H662" s="4"/>
+      <c r="I662" s="4"/>
+      <c r="J662" s="4"/>
+    </row>
+    <row r="663">
+      <c r="G663" s="4"/>
+      <c r="H663" s="4"/>
+      <c r="I663" s="4"/>
+      <c r="J663" s="4"/>
+    </row>
+    <row r="664">
+      <c r="G664" s="4"/>
+      <c r="H664" s="4"/>
+      <c r="I664" s="4"/>
+      <c r="J664" s="4"/>
+    </row>
+    <row r="665">
+      <c r="G665" s="4"/>
+      <c r="H665" s="4"/>
+      <c r="I665" s="4"/>
+      <c r="J665" s="4"/>
+    </row>
+    <row r="666">
+      <c r="G666" s="4"/>
+      <c r="H666" s="4"/>
+      <c r="I666" s="4"/>
+      <c r="J666" s="4"/>
+    </row>
+    <row r="667">
+      <c r="G667" s="4"/>
+      <c r="H667" s="4"/>
+      <c r="I667" s="4"/>
+      <c r="J667" s="4"/>
+    </row>
+    <row r="668">
+      <c r="G668" s="4"/>
+      <c r="H668" s="4"/>
+      <c r="I668" s="4"/>
+      <c r="J668" s="4"/>
+    </row>
+    <row r="669">
+      <c r="G669" s="4"/>
+      <c r="H669" s="4"/>
+      <c r="I669" s="4"/>
+      <c r="J669" s="4"/>
+    </row>
+    <row r="670">
+      <c r="G670" s="4"/>
+      <c r="H670" s="4"/>
+      <c r="I670" s="4"/>
+      <c r="J670" s="4"/>
+    </row>
+    <row r="671">
+      <c r="G671" s="4"/>
+      <c r="H671" s="4"/>
+      <c r="I671" s="4"/>
+      <c r="J671" s="4"/>
+    </row>
+    <row r="672">
+      <c r="G672" s="4"/>
+      <c r="H672" s="4"/>
+      <c r="I672" s="4"/>
+      <c r="J672" s="4"/>
+    </row>
+    <row r="673">
+      <c r="G673" s="4"/>
+      <c r="H673" s="4"/>
+      <c r="I673" s="4"/>
+      <c r="J673" s="4"/>
+    </row>
+    <row r="674">
+      <c r="G674" s="4"/>
+      <c r="H674" s="4"/>
+      <c r="I674" s="4"/>
+      <c r="J674" s="4"/>
+    </row>
+    <row r="675">
+      <c r="G675" s="4"/>
+      <c r="H675" s="4"/>
+      <c r="I675" s="4"/>
+      <c r="J675" s="4"/>
+    </row>
+    <row r="676">
+      <c r="G676" s="4"/>
+      <c r="H676" s="4"/>
+      <c r="I676" s="4"/>
+      <c r="J676" s="4"/>
+    </row>
+    <row r="677">
+      <c r="G677" s="4"/>
+      <c r="H677" s="4"/>
+      <c r="I677" s="4"/>
+      <c r="J677" s="4"/>
+    </row>
+    <row r="678">
+      <c r="G678" s="4"/>
+      <c r="H678" s="4"/>
+      <c r="I678" s="4"/>
+      <c r="J678" s="4"/>
+    </row>
+    <row r="679">
+      <c r="G679" s="4"/>
+      <c r="H679" s="4"/>
+      <c r="I679" s="4"/>
+      <c r="J679" s="4"/>
+    </row>
+    <row r="680">
+      <c r="G680" s="4"/>
+      <c r="H680" s="4"/>
+      <c r="I680" s="4"/>
+      <c r="J680" s="4"/>
+    </row>
+    <row r="681">
+      <c r="G681" s="4"/>
+      <c r="H681" s="4"/>
+      <c r="I681" s="4"/>
+      <c r="J681" s="4"/>
+    </row>
+    <row r="682">
+      <c r="G682" s="4"/>
+      <c r="H682" s="4"/>
+      <c r="I682" s="4"/>
+      <c r="J682" s="4"/>
+    </row>
+    <row r="683">
+      <c r="G683" s="4"/>
+      <c r="H683" s="4"/>
+      <c r="I683" s="4"/>
+      <c r="J683" s="4"/>
+    </row>
+    <row r="684">
+      <c r="G684" s="4"/>
+      <c r="H684" s="4"/>
+      <c r="I684" s="4"/>
+      <c r="J684" s="4"/>
+    </row>
+    <row r="685">
+      <c r="G685" s="4"/>
+      <c r="H685" s="4"/>
+      <c r="I685" s="4"/>
+      <c r="J685" s="4"/>
+    </row>
+    <row r="686">
+      <c r="G686" s="4"/>
+      <c r="H686" s="4"/>
+      <c r="I686" s="4"/>
+      <c r="J686" s="4"/>
+    </row>
+    <row r="687">
+      <c r="G687" s="4"/>
+      <c r="H687" s="4"/>
+      <c r="I687" s="4"/>
+      <c r="J687" s="4"/>
+    </row>
+    <row r="688">
+      <c r="G688" s="4"/>
+      <c r="H688" s="4"/>
+      <c r="I688" s="4"/>
+      <c r="J688" s="4"/>
+    </row>
+    <row r="689">
+      <c r="G689" s="4"/>
+      <c r="H689" s="4"/>
+      <c r="I689" s="4"/>
+      <c r="J689" s="4"/>
+    </row>
+    <row r="690">
+      <c r="G690" s="4"/>
+      <c r="H690" s="4"/>
+      <c r="I690" s="4"/>
+      <c r="J690" s="4"/>
+    </row>
+    <row r="691">
+      <c r="G691" s="4"/>
+      <c r="H691" s="4"/>
+      <c r="I691" s="4"/>
+      <c r="J691" s="4"/>
+    </row>
+    <row r="692">
+      <c r="G692" s="4"/>
+      <c r="H692" s="4"/>
+      <c r="I692" s="4"/>
+      <c r="J692" s="4"/>
+    </row>
+    <row r="693">
+      <c r="G693" s="4"/>
+      <c r="H693" s="4"/>
+      <c r="I693" s="4"/>
+      <c r="J693" s="4"/>
+    </row>
+    <row r="694">
+      <c r="G694" s="4"/>
+      <c r="H694" s="4"/>
+      <c r="I694" s="4"/>
+      <c r="J694" s="4"/>
+    </row>
+    <row r="695">
+      <c r="G695" s="4"/>
+      <c r="H695" s="4"/>
+      <c r="I695" s="4"/>
+      <c r="J695" s="4"/>
+    </row>
+    <row r="696">
+      <c r="G696" s="4"/>
+      <c r="H696" s="4"/>
+      <c r="I696" s="4"/>
+      <c r="J696" s="4"/>
+    </row>
+    <row r="697">
+      <c r="G697" s="4"/>
+      <c r="H697" s="4"/>
+      <c r="I697" s="4"/>
+      <c r="J697" s="4"/>
+    </row>
+    <row r="698">
+      <c r="G698" s="4"/>
+      <c r="H698" s="4"/>
+      <c r="I698" s="4"/>
+      <c r="J698" s="4"/>
+    </row>
+    <row r="699">
+      <c r="G699" s="4"/>
+      <c r="H699" s="4"/>
+      <c r="I699" s="4"/>
+      <c r="J699" s="4"/>
+    </row>
+    <row r="700">
+      <c r="G700" s="4"/>
+      <c r="H700" s="4"/>
+      <c r="I700" s="4"/>
+      <c r="J700" s="4"/>
+    </row>
+    <row r="701">
+      <c r="G701" s="4"/>
+      <c r="H701" s="4"/>
+      <c r="I701" s="4"/>
+      <c r="J701" s="4"/>
+    </row>
+    <row r="702">
+      <c r="G702" s="4"/>
+      <c r="H702" s="4"/>
+      <c r="I702" s="4"/>
+      <c r="J702" s="4"/>
+    </row>
+    <row r="703">
+      <c r="G703" s="4"/>
+      <c r="H703" s="4"/>
+      <c r="I703" s="4"/>
+      <c r="J703" s="4"/>
+    </row>
+    <row r="704">
+      <c r="G704" s="4"/>
+      <c r="H704" s="4"/>
+      <c r="I704" s="4"/>
+      <c r="J704" s="4"/>
+    </row>
+    <row r="705">
+      <c r="G705" s="4"/>
+      <c r="H705" s="4"/>
+      <c r="I705" s="4"/>
+      <c r="J705" s="4"/>
+    </row>
+    <row r="706">
+      <c r="G706" s="4"/>
+      <c r="H706" s="4"/>
+      <c r="I706" s="4"/>
+      <c r="J706" s="4"/>
+    </row>
+    <row r="707">
+      <c r="G707" s="4"/>
+      <c r="H707" s="4"/>
+      <c r="I707" s="4"/>
+      <c r="J707" s="4"/>
+    </row>
+    <row r="708">
+      <c r="G708" s="4"/>
+      <c r="H708" s="4"/>
+      <c r="I708" s="4"/>
+      <c r="J708" s="4"/>
+    </row>
+    <row r="709">
+      <c r="G709" s="4"/>
+      <c r="H709" s="4"/>
+      <c r="I709" s="4"/>
+      <c r="J709" s="4"/>
+    </row>
+    <row r="710">
+      <c r="G710" s="4"/>
+      <c r="H710" s="4"/>
+      <c r="I710" s="4"/>
+      <c r="J710" s="4"/>
+    </row>
+    <row r="711">
+      <c r="G711" s="4"/>
+      <c r="H711" s="4"/>
+      <c r="I711" s="4"/>
+      <c r="J711" s="4"/>
+    </row>
+    <row r="712">
+      <c r="G712" s="4"/>
+      <c r="H712" s="4"/>
+      <c r="I712" s="4"/>
+      <c r="J712" s="4"/>
+    </row>
+    <row r="713">
+      <c r="G713" s="4"/>
+      <c r="H713" s="4"/>
+      <c r="I713" s="4"/>
+      <c r="J713" s="4"/>
+    </row>
+    <row r="714">
+      <c r="G714" s="4"/>
+      <c r="H714" s="4"/>
+      <c r="I714" s="4"/>
+      <c r="J714" s="4"/>
+    </row>
+    <row r="715">
+      <c r="G715" s="4"/>
+      <c r="H715" s="4"/>
+      <c r="I715" s="4"/>
+      <c r="J715" s="4"/>
+    </row>
+    <row r="716">
+      <c r="G716" s="4"/>
+      <c r="H716" s="4"/>
+      <c r="I716" s="4"/>
+      <c r="J716" s="4"/>
+    </row>
+    <row r="717">
+      <c r="G717" s="4"/>
+      <c r="H717" s="4"/>
+      <c r="I717" s="4"/>
+      <c r="J717" s="4"/>
+    </row>
+    <row r="718">
+      <c r="G718" s="4"/>
+      <c r="H718" s="4"/>
+      <c r="I718" s="4"/>
+      <c r="J718" s="4"/>
+    </row>
+    <row r="719">
+      <c r="G719" s="4"/>
+      <c r="H719" s="4"/>
+      <c r="I719" s="4"/>
+      <c r="J719" s="4"/>
+    </row>
+    <row r="720">
+      <c r="G720" s="4"/>
+      <c r="H720" s="4"/>
+      <c r="I720" s="4"/>
+      <c r="J720" s="4"/>
+    </row>
+    <row r="721">
+      <c r="G721" s="4"/>
+      <c r="H721" s="4"/>
+      <c r="I721" s="4"/>
+      <c r="J721" s="4"/>
+    </row>
+    <row r="722">
+      <c r="G722" s="4"/>
+      <c r="H722" s="4"/>
+      <c r="I722" s="4"/>
+      <c r="J722" s="4"/>
+    </row>
+    <row r="723">
+      <c r="G723" s="4"/>
+      <c r="H723" s="4"/>
+      <c r="I723" s="4"/>
+      <c r="J723" s="4"/>
+    </row>
+    <row r="724">
+      <c r="G724" s="4"/>
+      <c r="H724" s="4"/>
+      <c r="I724" s="4"/>
+      <c r="J724" s="4"/>
+    </row>
+    <row r="725">
+      <c r="G725" s="4"/>
+      <c r="H725" s="4"/>
+      <c r="I725" s="4"/>
+      <c r="J725" s="4"/>
+    </row>
+    <row r="726">
+      <c r="G726" s="4"/>
+      <c r="H726" s="4"/>
+      <c r="I726" s="4"/>
+      <c r="J726" s="4"/>
+    </row>
+    <row r="727">
+      <c r="G727" s="4"/>
+      <c r="H727" s="4"/>
+      <c r="I727" s="4"/>
+      <c r="J727" s="4"/>
+    </row>
+    <row r="728">
+      <c r="G728" s="4"/>
+      <c r="H728" s="4"/>
+      <c r="I728" s="4"/>
+      <c r="J728" s="4"/>
+    </row>
+    <row r="729">
+      <c r="G729" s="4"/>
+      <c r="H729" s="4"/>
+      <c r="I729" s="4"/>
+      <c r="J729" s="4"/>
+    </row>
+    <row r="730">
+      <c r="G730" s="4"/>
+      <c r="H730" s="4"/>
+      <c r="I730" s="4"/>
+      <c r="J730" s="4"/>
+    </row>
+    <row r="731">
+      <c r="G731" s="4"/>
+      <c r="H731" s="4"/>
+      <c r="I731" s="4"/>
+      <c r="J731" s="4"/>
+    </row>
+    <row r="732">
+      <c r="G732" s="4"/>
+      <c r="H732" s="4"/>
+      <c r="I732" s="4"/>
+      <c r="J732" s="4"/>
+    </row>
+    <row r="733">
+      <c r="G733" s="4"/>
+      <c r="H733" s="4"/>
+      <c r="I733" s="4"/>
+      <c r="J733" s="4"/>
+    </row>
+    <row r="734">
+      <c r="G734" s="4"/>
+      <c r="H734" s="4"/>
+      <c r="I734" s="4"/>
+      <c r="J734" s="4"/>
+    </row>
+    <row r="735">
+      <c r="G735" s="4"/>
+      <c r="H735" s="4"/>
+      <c r="I735" s="4"/>
+      <c r="J735" s="4"/>
+    </row>
+    <row r="736">
+      <c r="G736" s="4"/>
+      <c r="H736" s="4"/>
+      <c r="I736" s="4"/>
+      <c r="J736" s="4"/>
+    </row>
+    <row r="737">
+      <c r="G737" s="4"/>
+      <c r="H737" s="4"/>
+      <c r="I737" s="4"/>
+      <c r="J737" s="4"/>
+    </row>
+    <row r="738">
+      <c r="G738" s="4"/>
+      <c r="H738" s="4"/>
+      <c r="I738" s="4"/>
+      <c r="J738" s="4"/>
+    </row>
+    <row r="739">
+      <c r="G739" s="4"/>
+      <c r="H739" s="4"/>
+      <c r="I739" s="4"/>
+      <c r="J739" s="4"/>
+    </row>
+    <row r="740">
+      <c r="G740" s="4"/>
+      <c r="H740" s="4"/>
+      <c r="I740" s="4"/>
+      <c r="J740" s="4"/>
+    </row>
+    <row r="741">
+      <c r="G741" s="4"/>
+      <c r="H741" s="4"/>
+      <c r="I741" s="4"/>
+      <c r="J741" s="4"/>
+    </row>
+    <row r="742">
+      <c r="G742" s="4"/>
+      <c r="H742" s="4"/>
+      <c r="I742" s="4"/>
+      <c r="J742" s="4"/>
+    </row>
+    <row r="743">
+      <c r="G743" s="4"/>
+      <c r="H743" s="4"/>
+      <c r="I743" s="4"/>
+      <c r="J743" s="4"/>
+    </row>
+    <row r="744">
+      <c r="G744" s="4"/>
+      <c r="H744" s="4"/>
+      <c r="I744" s="4"/>
+      <c r="J744" s="4"/>
+    </row>
+    <row r="745">
+      <c r="G745" s="4"/>
+      <c r="H745" s="4"/>
+      <c r="I745" s="4"/>
+      <c r="J745" s="4"/>
+    </row>
+    <row r="746">
+      <c r="G746" s="4"/>
+      <c r="H746" s="4"/>
+      <c r="I746" s="4"/>
+      <c r="J746" s="4"/>
+    </row>
+    <row r="747">
+      <c r="G747" s="4"/>
+      <c r="H747" s="4"/>
+      <c r="I747" s="4"/>
+      <c r="J747" s="4"/>
+    </row>
+    <row r="748">
+      <c r="G748" s="4"/>
+      <c r="H748" s="4"/>
+      <c r="I748" s="4"/>
+      <c r="J748" s="4"/>
+    </row>
+    <row r="749">
+      <c r="G749" s="4"/>
+      <c r="H749" s="4"/>
+      <c r="I749" s="4"/>
+      <c r="J749" s="4"/>
+    </row>
+    <row r="750">
+      <c r="G750" s="4"/>
+      <c r="H750" s="4"/>
+      <c r="I750" s="4"/>
+      <c r="J750" s="4"/>
+    </row>
+    <row r="751">
+      <c r="G751" s="4"/>
+      <c r="H751" s="4"/>
+      <c r="I751" s="4"/>
+      <c r="J751" s="4"/>
+    </row>
+    <row r="752">
+      <c r="G752" s="4"/>
+      <c r="H752" s="4"/>
+      <c r="I752" s="4"/>
+      <c r="J752" s="4"/>
+    </row>
+    <row r="753">
+      <c r="G753" s="4"/>
+      <c r="H753" s="4"/>
+      <c r="I753" s="4"/>
+      <c r="J753" s="4"/>
+    </row>
+    <row r="754">
+      <c r="G754" s="4"/>
+      <c r="H754" s="4"/>
+      <c r="I754" s="4"/>
+      <c r="J754" s="4"/>
+    </row>
+    <row r="755">
+      <c r="G755" s="4"/>
+      <c r="H755" s="4"/>
+      <c r="I755" s="4"/>
+      <c r="J755" s="4"/>
+    </row>
+    <row r="756">
+      <c r="G756" s="4"/>
+      <c r="H756" s="4"/>
+      <c r="I756" s="4"/>
+      <c r="J756" s="4"/>
+    </row>
+    <row r="757">
+      <c r="G757" s="4"/>
+      <c r="H757" s="4"/>
+      <c r="I757" s="4"/>
+      <c r="J757" s="4"/>
+    </row>
+    <row r="758">
+      <c r="G758" s="4"/>
+      <c r="H758" s="4"/>
+      <c r="I758" s="4"/>
+      <c r="J758" s="4"/>
+    </row>
+    <row r="759">
+      <c r="G759" s="4"/>
+      <c r="H759" s="4"/>
+      <c r="I759" s="4"/>
+      <c r="J759" s="4"/>
+    </row>
+    <row r="760">
+      <c r="G760" s="4"/>
+      <c r="H760" s="4"/>
+      <c r="I760" s="4"/>
+      <c r="J760" s="4"/>
+    </row>
+    <row r="761">
+      <c r="G761" s="4"/>
+      <c r="H761" s="4"/>
+      <c r="I761" s="4"/>
+      <c r="J761" s="4"/>
+    </row>
+    <row r="762">
+      <c r="G762" s="4"/>
+      <c r="H762" s="4"/>
+      <c r="I762" s="4"/>
+      <c r="J762" s="4"/>
+    </row>
+    <row r="763">
+      <c r="G763" s="4"/>
+      <c r="H763" s="4"/>
+      <c r="I763" s="4"/>
+      <c r="J763" s="4"/>
+    </row>
+    <row r="764">
+      <c r="G764" s="4"/>
+      <c r="H764" s="4"/>
+      <c r="I764" s="4"/>
+      <c r="J764" s="4"/>
+    </row>
+    <row r="765">
+      <c r="G765" s="4"/>
+      <c r="H765" s="4"/>
+      <c r="I765" s="4"/>
+      <c r="J765" s="4"/>
+    </row>
+    <row r="766">
+      <c r="G766" s="4"/>
+      <c r="H766" s="4"/>
+      <c r="I766" s="4"/>
+      <c r="J766" s="4"/>
+    </row>
+    <row r="767">
+      <c r="G767" s="4"/>
+      <c r="H767" s="4"/>
+      <c r="I767" s="4"/>
+      <c r="J767" s="4"/>
+    </row>
+    <row r="768">
+      <c r="G768" s="4"/>
+      <c r="H768" s="4"/>
+      <c r="I768" s="4"/>
+      <c r="J768" s="4"/>
+    </row>
+    <row r="769">
+      <c r="G769" s="4"/>
+      <c r="H769" s="4"/>
+      <c r="I769" s="4"/>
+      <c r="J769" s="4"/>
+    </row>
+    <row r="770">
+      <c r="G770" s="4"/>
+      <c r="H770" s="4"/>
+      <c r="I770" s="4"/>
+      <c r="J770" s="4"/>
+    </row>
+    <row r="771">
+      <c r="G771" s="4"/>
+      <c r="H771" s="4"/>
+      <c r="I771" s="4"/>
+      <c r="J771" s="4"/>
+    </row>
+    <row r="772">
+      <c r="G772" s="4"/>
+      <c r="H772" s="4"/>
+      <c r="I772" s="4"/>
+      <c r="J772" s="4"/>
+    </row>
+    <row r="773">
+      <c r="G773" s="4"/>
+      <c r="H773" s="4"/>
+      <c r="I773" s="4"/>
+      <c r="J773" s="4"/>
+    </row>
+    <row r="774">
+      <c r="G774" s="4"/>
+      <c r="H774" s="4"/>
+      <c r="I774" s="4"/>
+      <c r="J774" s="4"/>
+    </row>
+    <row r="775">
+      <c r="G775" s="4"/>
+      <c r="H775" s="4"/>
+      <c r="I775" s="4"/>
+      <c r="J775" s="4"/>
+    </row>
+    <row r="776">
+      <c r="G776" s="4"/>
+      <c r="H776" s="4"/>
+      <c r="I776" s="4"/>
+      <c r="J776" s="4"/>
+    </row>
+    <row r="777">
+      <c r="G777" s="4"/>
+      <c r="H777" s="4"/>
+      <c r="I777" s="4"/>
+      <c r="J777" s="4"/>
+    </row>
+    <row r="778">
+      <c r="G778" s="4"/>
+      <c r="H778" s="4"/>
+      <c r="I778" s="4"/>
+      <c r="J778" s="4"/>
+    </row>
+    <row r="779">
+      <c r="G779" s="4"/>
+      <c r="H779" s="4"/>
+      <c r="I779" s="4"/>
+      <c r="J779" s="4"/>
+    </row>
+    <row r="780">
+      <c r="G780" s="4"/>
+      <c r="H780" s="4"/>
+      <c r="I780" s="4"/>
+      <c r="J780" s="4"/>
+    </row>
+    <row r="781">
+      <c r="G781" s="4"/>
+      <c r="H781" s="4"/>
+      <c r="I781" s="4"/>
+      <c r="J781" s="4"/>
+    </row>
+    <row r="782">
+      <c r="G782" s="4"/>
+      <c r="H782" s="4"/>
+      <c r="I782" s="4"/>
+      <c r="J782" s="4"/>
+    </row>
+    <row r="783">
+      <c r="G783" s="4"/>
+      <c r="H783" s="4"/>
+      <c r="I783" s="4"/>
+      <c r="J783" s="4"/>
+    </row>
+    <row r="784">
+      <c r="G784" s="4"/>
+      <c r="H784" s="4"/>
+      <c r="I784" s="4"/>
+      <c r="J784" s="4"/>
+    </row>
+    <row r="785">
+      <c r="G785" s="4"/>
+      <c r="H785" s="4"/>
+      <c r="I785" s="4"/>
+      <c r="J785" s="4"/>
+    </row>
+    <row r="786">
+      <c r="G786" s="4"/>
+      <c r="H786" s="4"/>
+      <c r="I786" s="4"/>
+      <c r="J786" s="4"/>
+    </row>
+    <row r="787">
+      <c r="G787" s="4"/>
+      <c r="H787" s="4"/>
+      <c r="I787" s="4"/>
+      <c r="J787" s="4"/>
+    </row>
+    <row r="788">
+      <c r="G788" s="4"/>
+      <c r="H788" s="4"/>
+      <c r="I788" s="4"/>
+      <c r="J788" s="4"/>
+    </row>
+    <row r="789">
+      <c r="G789" s="4"/>
+      <c r="H789" s="4"/>
+      <c r="I789" s="4"/>
+      <c r="J789" s="4"/>
+    </row>
+    <row r="790">
+      <c r="G790" s="4"/>
+      <c r="H790" s="4"/>
+      <c r="I790" s="4"/>
+      <c r="J790" s="4"/>
+    </row>
+    <row r="791">
+      <c r="G791" s="4"/>
+      <c r="H791" s="4"/>
+      <c r="I791" s="4"/>
+      <c r="J791" s="4"/>
+    </row>
+    <row r="792">
+      <c r="G792" s="4"/>
+      <c r="H792" s="4"/>
+      <c r="I792" s="4"/>
+      <c r="J792" s="4"/>
+    </row>
+    <row r="793">
+      <c r="G793" s="4"/>
+      <c r="H793" s="4"/>
+      <c r="I793" s="4"/>
+      <c r="J793" s="4"/>
+    </row>
+    <row r="794">
+      <c r="G794" s="4"/>
+      <c r="H794" s="4"/>
+      <c r="I794" s="4"/>
+      <c r="J794" s="4"/>
+    </row>
+    <row r="795">
+      <c r="G795" s="4"/>
+      <c r="H795" s="4"/>
+      <c r="I795" s="4"/>
+      <c r="J795" s="4"/>
+    </row>
+    <row r="796">
+      <c r="G796" s="4"/>
+      <c r="H796" s="4"/>
+      <c r="I796" s="4"/>
+      <c r="J796" s="4"/>
+    </row>
+    <row r="797">
+      <c r="G797" s="4"/>
+      <c r="H797" s="4"/>
+      <c r="I797" s="4"/>
+      <c r="J797" s="4"/>
+    </row>
+    <row r="798">
+      <c r="G798" s="4"/>
+      <c r="H798" s="4"/>
+      <c r="I798" s="4"/>
+      <c r="J798" s="4"/>
+    </row>
+    <row r="799">
+      <c r="G799" s="4"/>
+      <c r="H799" s="4"/>
+      <c r="I799" s="4"/>
+      <c r="J799" s="4"/>
+    </row>
+    <row r="800">
+      <c r="G800" s="4"/>
+      <c r="H800" s="4"/>
+      <c r="I800" s="4"/>
+      <c r="J800" s="4"/>
+    </row>
+    <row r="801">
+      <c r="G801" s="4"/>
+      <c r="H801" s="4"/>
+      <c r="I801" s="4"/>
+      <c r="J801" s="4"/>
+    </row>
+    <row r="802">
+      <c r="G802" s="4"/>
+      <c r="H802" s="4"/>
+      <c r="I802" s="4"/>
+      <c r="J802" s="4"/>
+    </row>
+    <row r="803">
+      <c r="G803" s="4"/>
+      <c r="H803" s="4"/>
+      <c r="I803" s="4"/>
+      <c r="J803" s="4"/>
+    </row>
+    <row r="804">
+      <c r="G804" s="4"/>
+      <c r="H804" s="4"/>
+      <c r="I804" s="4"/>
+      <c r="J804" s="4"/>
+    </row>
+    <row r="805">
+      <c r="G805" s="4"/>
+      <c r="H805" s="4"/>
+      <c r="I805" s="4"/>
+      <c r="J805" s="4"/>
+    </row>
+    <row r="806">
+      <c r="G806" s="4"/>
+      <c r="H806" s="4"/>
+      <c r="I806" s="4"/>
+      <c r="J806" s="4"/>
+    </row>
+    <row r="807">
+      <c r="G807" s="4"/>
+      <c r="H807" s="4"/>
+      <c r="I807" s="4"/>
+      <c r="J807" s="4"/>
+    </row>
+    <row r="808">
+      <c r="G808" s="4"/>
+      <c r="H808" s="4"/>
+      <c r="I808" s="4"/>
+      <c r="J808" s="4"/>
+    </row>
+    <row r="809">
+      <c r="G809" s="4"/>
+      <c r="H809" s="4"/>
+      <c r="I809" s="4"/>
+      <c r="J809" s="4"/>
+    </row>
+    <row r="810">
+      <c r="G810" s="4"/>
+      <c r="H810" s="4"/>
+      <c r="I810" s="4"/>
+      <c r="J810" s="4"/>
+    </row>
+    <row r="811">
+      <c r="G811" s="4"/>
+      <c r="H811" s="4"/>
+      <c r="I811" s="4"/>
+      <c r="J811" s="4"/>
+    </row>
+    <row r="812">
+      <c r="G812" s="4"/>
+      <c r="H812" s="4"/>
+      <c r="I812" s="4"/>
+      <c r="J812" s="4"/>
+    </row>
+    <row r="813">
+      <c r="G813" s="4"/>
+      <c r="H813" s="4"/>
+      <c r="I813" s="4"/>
+      <c r="J813" s="4"/>
+    </row>
+    <row r="814">
+      <c r="G814" s="4"/>
+      <c r="H814" s="4"/>
+      <c r="I814" s="4"/>
+      <c r="J814" s="4"/>
+    </row>
+    <row r="815">
+      <c r="G815" s="4"/>
+      <c r="H815" s="4"/>
+      <c r="I815" s="4"/>
+      <c r="J815" s="4"/>
+    </row>
+    <row r="816">
+      <c r="G816" s="4"/>
+      <c r="H816" s="4"/>
+      <c r="I816" s="4"/>
+      <c r="J816" s="4"/>
+    </row>
+    <row r="817">
+      <c r="G817" s="4"/>
+      <c r="H817" s="4"/>
+      <c r="I817" s="4"/>
+      <c r="J817" s="4"/>
+    </row>
+    <row r="818">
+      <c r="G818" s="4"/>
+      <c r="H818" s="4"/>
+      <c r="I818" s="4"/>
+      <c r="J818" s="4"/>
+    </row>
+    <row r="819">
+      <c r="G819" s="4"/>
+      <c r="H819" s="4"/>
+      <c r="I819" s="4"/>
+      <c r="J819" s="4"/>
+    </row>
+    <row r="820">
+      <c r="G820" s="4"/>
+      <c r="H820" s="4"/>
+      <c r="I820" s="4"/>
+      <c r="J820" s="4"/>
+    </row>
+    <row r="821">
+      <c r="G821" s="4"/>
+      <c r="H821" s="4"/>
+      <c r="I821" s="4"/>
+      <c r="J821" s="4"/>
+    </row>
+    <row r="822">
+      <c r="G822" s="4"/>
+      <c r="H822" s="4"/>
+      <c r="I822" s="4"/>
+      <c r="J822" s="4"/>
+    </row>
+    <row r="823">
+      <c r="G823" s="4"/>
+      <c r="H823" s="4"/>
+      <c r="I823" s="4"/>
+      <c r="J823" s="4"/>
+    </row>
+    <row r="824">
+      <c r="G824" s="4"/>
+      <c r="H824" s="4"/>
+      <c r="I824" s="4"/>
+      <c r="J824" s="4"/>
+    </row>
+    <row r="825">
+      <c r="G825" s="4"/>
+      <c r="H825" s="4"/>
+      <c r="I825" s="4"/>
+      <c r="J825" s="4"/>
+    </row>
+    <row r="826">
+      <c r="G826" s="4"/>
+      <c r="H826" s="4"/>
+      <c r="I826" s="4"/>
+      <c r="J826" s="4"/>
+    </row>
+    <row r="827">
+      <c r="G827" s="4"/>
+      <c r="H827" s="4"/>
+      <c r="I827" s="4"/>
+      <c r="J827" s="4"/>
+    </row>
+    <row r="828">
+      <c r="G828" s="4"/>
+      <c r="H828" s="4"/>
+      <c r="I828" s="4"/>
+      <c r="J828" s="4"/>
+    </row>
+    <row r="829">
+      <c r="G829" s="4"/>
+      <c r="H829" s="4"/>
+      <c r="I829" s="4"/>
+      <c r="J829" s="4"/>
+    </row>
+    <row r="830">
+      <c r="G830" s="4"/>
+      <c r="H830" s="4"/>
+      <c r="I830" s="4"/>
+      <c r="J830" s="4"/>
+    </row>
+    <row r="831">
+      <c r="G831" s="4"/>
+      <c r="H831" s="4"/>
+      <c r="I831" s="4"/>
+      <c r="J831" s="4"/>
+    </row>
+    <row r="832">
+      <c r="G832" s="4"/>
+      <c r="H832" s="4"/>
+      <c r="I832" s="4"/>
+      <c r="J832" s="4"/>
+    </row>
+    <row r="833">
+      <c r="G833" s="4"/>
+      <c r="H833" s="4"/>
+      <c r="I833" s="4"/>
+      <c r="J833" s="4"/>
+    </row>
+    <row r="834">
+      <c r="G834" s="4"/>
+      <c r="H834" s="4"/>
+      <c r="I834" s="4"/>
+      <c r="J834" s="4"/>
+    </row>
+    <row r="835">
+      <c r="G835" s="4"/>
+      <c r="H835" s="4"/>
+      <c r="I835" s="4"/>
+      <c r="J835" s="4"/>
+    </row>
+    <row r="836">
+      <c r="G836" s="4"/>
+      <c r="H836" s="4"/>
+      <c r="I836" s="4"/>
+      <c r="J836" s="4"/>
+    </row>
+    <row r="837">
+      <c r="G837" s="4"/>
+      <c r="H837" s="4"/>
+      <c r="I837" s="4"/>
+      <c r="J837" s="4"/>
+    </row>
+    <row r="838">
+      <c r="G838" s="4"/>
+      <c r="H838" s="4"/>
+      <c r="I838" s="4"/>
+      <c r="J838" s="4"/>
+    </row>
+    <row r="839">
+      <c r="G839" s="4"/>
+      <c r="H839" s="4"/>
+      <c r="I839" s="4"/>
+      <c r="J839" s="4"/>
+    </row>
+    <row r="840">
+      <c r="G840" s="4"/>
+      <c r="H840" s="4"/>
+      <c r="I840" s="4"/>
+      <c r="J840" s="4"/>
+    </row>
+    <row r="841">
+      <c r="G841" s="4"/>
+      <c r="H841" s="4"/>
+      <c r="I841" s="4"/>
+      <c r="J841" s="4"/>
+    </row>
+    <row r="842">
+      <c r="G842" s="4"/>
+      <c r="H842" s="4"/>
+      <c r="I842" s="4"/>
+      <c r="J842" s="4"/>
+    </row>
+    <row r="843">
+      <c r="G843" s="4"/>
+      <c r="H843" s="4"/>
+      <c r="I843" s="4"/>
+      <c r="J843" s="4"/>
+    </row>
+    <row r="844">
+      <c r="G844" s="4"/>
+      <c r="H844" s="4"/>
+      <c r="I844" s="4"/>
+      <c r="J844" s="4"/>
+    </row>
+    <row r="845">
+      <c r="G845" s="4"/>
+      <c r="H845" s="4"/>
+      <c r="I845" s="4"/>
+      <c r="J845" s="4"/>
+    </row>
+    <row r="846">
+      <c r="G846" s="4"/>
+      <c r="H846" s="4"/>
+      <c r="I846" s="4"/>
+      <c r="J846" s="4"/>
+    </row>
+    <row r="847">
+      <c r="G847" s="4"/>
+      <c r="H847" s="4"/>
+      <c r="I847" s="4"/>
+      <c r="J847" s="4"/>
+    </row>
+    <row r="848">
+      <c r="G848" s="4"/>
+      <c r="H848" s="4"/>
+      <c r="I848" s="4"/>
+      <c r="J848" s="4"/>
+    </row>
+    <row r="849">
+      <c r="G849" s="4"/>
+      <c r="H849" s="4"/>
+      <c r="I849" s="4"/>
+      <c r="J849" s="4"/>
+    </row>
+    <row r="850">
+      <c r="G850" s="4"/>
+      <c r="H850" s="4"/>
+      <c r="I850" s="4"/>
+      <c r="J850" s="4"/>
+    </row>
+    <row r="851">
+      <c r="G851" s="4"/>
+      <c r="H851" s="4"/>
+      <c r="I851" s="4"/>
+      <c r="J851" s="4"/>
+    </row>
+    <row r="852">
+      <c r="G852" s="4"/>
+      <c r="H852" s="4"/>
+      <c r="I852" s="4"/>
+      <c r="J852" s="4"/>
+    </row>
+    <row r="853">
+      <c r="G853" s="4"/>
+      <c r="H853" s="4"/>
+      <c r="I853" s="4"/>
+      <c r="J853" s="4"/>
+    </row>
+    <row r="854">
+      <c r="G854" s="4"/>
+      <c r="H854" s="4"/>
+      <c r="I854" s="4"/>
+      <c r="J854" s="4"/>
+    </row>
+    <row r="855">
+      <c r="G855" s="4"/>
+      <c r="H855" s="4"/>
+      <c r="I855" s="4"/>
+      <c r="J855" s="4"/>
+    </row>
+    <row r="856">
+      <c r="G856" s="4"/>
+      <c r="H856" s="4"/>
+      <c r="I856" s="4"/>
+      <c r="J856" s="4"/>
+    </row>
+    <row r="857">
+      <c r="G857" s="4"/>
+      <c r="H857" s="4"/>
+      <c r="I857" s="4"/>
+      <c r="J857" s="4"/>
+    </row>
+    <row r="858">
+      <c r="G858" s="4"/>
+      <c r="H858" s="4"/>
+      <c r="I858" s="4"/>
+      <c r="J858" s="4"/>
+    </row>
+    <row r="859">
+      <c r="G859" s="4"/>
+      <c r="H859" s="4"/>
+      <c r="I859" s="4"/>
+      <c r="J859" s="4"/>
+    </row>
+    <row r="860">
+      <c r="G860" s="4"/>
+      <c r="H860" s="4"/>
+      <c r="I860" s="4"/>
+      <c r="J860" s="4"/>
+    </row>
+    <row r="861">
+      <c r="G861" s="4"/>
+      <c r="H861" s="4"/>
+      <c r="I861" s="4"/>
+      <c r="J861" s="4"/>
+    </row>
+    <row r="862">
+      <c r="G862" s="4"/>
+      <c r="H862" s="4"/>
+      <c r="I862" s="4"/>
+      <c r="J862" s="4"/>
+    </row>
+    <row r="863">
+      <c r="G863" s="4"/>
+      <c r="H863" s="4"/>
+      <c r="I863" s="4"/>
+      <c r="J863" s="4"/>
+    </row>
+    <row r="864">
+      <c r="G864" s="4"/>
+      <c r="H864" s="4"/>
+      <c r="I864" s="4"/>
+      <c r="J864" s="4"/>
+    </row>
+    <row r="865">
+      <c r="G865" s="4"/>
+      <c r="H865" s="4"/>
+      <c r="I865" s="4"/>
+      <c r="J865" s="4"/>
+    </row>
+    <row r="866">
+      <c r="G866" s="4"/>
+      <c r="H866" s="4"/>
+      <c r="I866" s="4"/>
+      <c r="J866" s="4"/>
+    </row>
+    <row r="867">
+      <c r="G867" s="4"/>
+      <c r="H867" s="4"/>
+      <c r="I867" s="4"/>
+      <c r="J867" s="4"/>
+    </row>
+    <row r="868">
+      <c r="G868" s="4"/>
+      <c r="H868" s="4"/>
+      <c r="I868" s="4"/>
+      <c r="J868" s="4"/>
+    </row>
+    <row r="869">
+      <c r="G869" s="4"/>
+      <c r="H869" s="4"/>
+      <c r="I869" s="4"/>
+      <c r="J869" s="4"/>
+    </row>
+    <row r="870">
+      <c r="G870" s="4"/>
+      <c r="H870" s="4"/>
+      <c r="I870" s="4"/>
+      <c r="J870" s="4"/>
+    </row>
+    <row r="871">
+      <c r="G871" s="4"/>
+      <c r="H871" s="4"/>
+      <c r="I871" s="4"/>
+      <c r="J871" s="4"/>
+    </row>
+    <row r="872">
+      <c r="G872" s="4"/>
+      <c r="H872" s="4"/>
+      <c r="I872" s="4"/>
+      <c r="J872" s="4"/>
+    </row>
+    <row r="873">
+      <c r="G873" s="4"/>
+      <c r="H873" s="4"/>
+      <c r="I873" s="4"/>
+      <c r="J873" s="4"/>
+    </row>
+    <row r="874">
+      <c r="G874" s="4"/>
+      <c r="H874" s="4"/>
+      <c r="I874" s="4"/>
+      <c r="J874" s="4"/>
+    </row>
+    <row r="875">
+      <c r="G875" s="4"/>
+      <c r="H875" s="4"/>
+      <c r="I875" s="4"/>
+      <c r="J875" s="4"/>
+    </row>
+    <row r="876">
+      <c r="G876" s="4"/>
+      <c r="H876" s="4"/>
+      <c r="I876" s="4"/>
+      <c r="J876" s="4"/>
+    </row>
+    <row r="877">
+      <c r="G877" s="4"/>
+      <c r="H877" s="4"/>
+      <c r="I877" s="4"/>
+      <c r="J877" s="4"/>
+    </row>
+    <row r="878">
+      <c r="G878" s="4"/>
+      <c r="H878" s="4"/>
+      <c r="I878" s="4"/>
+      <c r="J878" s="4"/>
+    </row>
+    <row r="879">
+      <c r="G879" s="4"/>
+      <c r="H879" s="4"/>
+      <c r="I879" s="4"/>
+      <c r="J879" s="4"/>
+    </row>
+    <row r="880">
+      <c r="G880" s="4"/>
+      <c r="H880" s="4"/>
+      <c r="I880" s="4"/>
+      <c r="J880" s="4"/>
+    </row>
+    <row r="881">
+      <c r="G881" s="4"/>
+      <c r="H881" s="4"/>
+      <c r="I881" s="4"/>
+      <c r="J881" s="4"/>
+    </row>
+    <row r="882">
+      <c r="G882" s="4"/>
+      <c r="H882" s="4"/>
+      <c r="I882" s="4"/>
+      <c r="J882" s="4"/>
+    </row>
+    <row r="883">
+      <c r="G883" s="4"/>
+      <c r="H883" s="4"/>
+      <c r="I883" s="4"/>
+      <c r="J883" s="4"/>
+    </row>
+    <row r="884">
+      <c r="G884" s="4"/>
+      <c r="H884" s="4"/>
+      <c r="I884" s="4"/>
+      <c r="J884" s="4"/>
+    </row>
+    <row r="885">
+      <c r="G885" s="4"/>
+      <c r="H885" s="4"/>
+      <c r="I885" s="4"/>
+      <c r="J885" s="4"/>
+    </row>
+    <row r="886">
+      <c r="G886" s="4"/>
+      <c r="H886" s="4"/>
+      <c r="I886" s="4"/>
+      <c r="J886" s="4"/>
+    </row>
+    <row r="887">
+      <c r="G887" s="4"/>
+      <c r="H887" s="4"/>
+      <c r="I887" s="4"/>
+      <c r="J887" s="4"/>
+    </row>
+    <row r="888">
+      <c r="G888" s="4"/>
+      <c r="H888" s="4"/>
+      <c r="I888" s="4"/>
+      <c r="J888" s="4"/>
+    </row>
+    <row r="889">
+      <c r="G889" s="4"/>
+      <c r="H889" s="4"/>
+      <c r="I889" s="4"/>
+      <c r="J889" s="4"/>
+    </row>
+    <row r="890">
+      <c r="G890" s="4"/>
+      <c r="H890" s="4"/>
+      <c r="I890" s="4"/>
+      <c r="J890" s="4"/>
+    </row>
+    <row r="891">
+      <c r="G891" s="4"/>
+      <c r="H891" s="4"/>
+      <c r="I891" s="4"/>
+      <c r="J891" s="4"/>
+    </row>
+    <row r="892">
+      <c r="G892" s="4"/>
+      <c r="H892" s="4"/>
+      <c r="I892" s="4"/>
+      <c r="J892" s="4"/>
+    </row>
+    <row r="893">
+      <c r="G893" s="4"/>
+      <c r="H893" s="4"/>
+      <c r="I893" s="4"/>
+      <c r="J893" s="4"/>
+    </row>
+    <row r="894">
+      <c r="G894" s="4"/>
+      <c r="H894" s="4"/>
+      <c r="I894" s="4"/>
+      <c r="J894" s="4"/>
+    </row>
+    <row r="895">
+      <c r="G895" s="4"/>
+      <c r="H895" s="4"/>
+      <c r="I895" s="4"/>
+      <c r="J895" s="4"/>
+    </row>
+    <row r="896">
+      <c r="G896" s="4"/>
+      <c r="H896" s="4"/>
+      <c r="I896" s="4"/>
+      <c r="J896" s="4"/>
+    </row>
+    <row r="897">
+      <c r="G897" s="4"/>
+      <c r="H897" s="4"/>
+      <c r="I897" s="4"/>
+      <c r="J897" s="4"/>
+    </row>
+    <row r="898">
+      <c r="G898" s="4"/>
+      <c r="H898" s="4"/>
+      <c r="I898" s="4"/>
+      <c r="J898" s="4"/>
+    </row>
+    <row r="899">
+      <c r="G899" s="4"/>
+      <c r="H899" s="4"/>
+      <c r="I899" s="4"/>
+      <c r="J899" s="4"/>
+    </row>
+    <row r="900">
+      <c r="G900" s="4"/>
+      <c r="H900" s="4"/>
+      <c r="I900" s="4"/>
+      <c r="J900" s="4"/>
+    </row>
+    <row r="901">
+      <c r="G901" s="4"/>
+      <c r="H901" s="4"/>
+      <c r="I901" s="4"/>
+      <c r="J901" s="4"/>
+    </row>
+    <row r="902">
+      <c r="G902" s="4"/>
+      <c r="H902" s="4"/>
+      <c r="I902" s="4"/>
+      <c r="J902" s="4"/>
+    </row>
+    <row r="903">
+      <c r="G903" s="4"/>
+      <c r="H903" s="4"/>
+      <c r="I903" s="4"/>
+      <c r="J903" s="4"/>
+    </row>
+    <row r="904">
+      <c r="G904" s="4"/>
+      <c r="H904" s="4"/>
+      <c r="I904" s="4"/>
+      <c r="J904" s="4"/>
+    </row>
+    <row r="905">
+      <c r="G905" s="4"/>
+      <c r="H905" s="4"/>
+      <c r="I905" s="4"/>
+      <c r="J905" s="4"/>
+    </row>
+    <row r="906">
+      <c r="G906" s="4"/>
+      <c r="H906" s="4"/>
+      <c r="I906" s="4"/>
+      <c r="J906" s="4"/>
+    </row>
+    <row r="907">
+      <c r="G907" s="4"/>
+      <c r="H907" s="4"/>
+      <c r="I907" s="4"/>
+      <c r="J907" s="4"/>
+    </row>
+    <row r="908">
+      <c r="G908" s="4"/>
+      <c r="H908" s="4"/>
+      <c r="I908" s="4"/>
+      <c r="J908" s="4"/>
+    </row>
+    <row r="909">
+      <c r="G909" s="4"/>
+      <c r="H909" s="4"/>
+      <c r="I909" s="4"/>
+      <c r="J909" s="4"/>
+    </row>
+    <row r="910">
+      <c r="G910" s="4"/>
+      <c r="H910" s="4"/>
+      <c r="I910" s="4"/>
+      <c r="J910" s="4"/>
+    </row>
+    <row r="911">
+      <c r="G911" s="4"/>
+      <c r="H911" s="4"/>
+      <c r="I911" s="4"/>
+      <c r="J911" s="4"/>
+    </row>
+    <row r="912">
+      <c r="G912" s="4"/>
+      <c r="H912" s="4"/>
+      <c r="I912" s="4"/>
+      <c r="J912" s="4"/>
+    </row>
+    <row r="913">
+      <c r="G913" s="4"/>
+      <c r="H913" s="4"/>
+      <c r="I913" s="4"/>
+      <c r="J913" s="4"/>
+    </row>
+    <row r="914">
+      <c r="G914" s="4"/>
+      <c r="H914" s="4"/>
+      <c r="I914" s="4"/>
+      <c r="J914" s="4"/>
+    </row>
+    <row r="915">
+      <c r="G915" s="4"/>
+      <c r="H915" s="4"/>
+      <c r="I915" s="4"/>
+      <c r="J915" s="4"/>
+    </row>
+    <row r="916">
+      <c r="G916" s="4"/>
+      <c r="H916" s="4"/>
+      <c r="I916" s="4"/>
+      <c r="J916" s="4"/>
+    </row>
+    <row r="917">
+      <c r="G917" s="4"/>
+      <c r="H917" s="4"/>
+      <c r="I917" s="4"/>
+      <c r="J917" s="4"/>
+    </row>
+    <row r="918">
+      <c r="G918" s="4"/>
+      <c r="H918" s="4"/>
+      <c r="I918" s="4"/>
+      <c r="J918" s="4"/>
+    </row>
+    <row r="919">
+      <c r="G919" s="4"/>
+      <c r="H919" s="4"/>
+      <c r="I919" s="4"/>
+      <c r="J919" s="4"/>
+    </row>
+    <row r="920">
+      <c r="G920" s="4"/>
+      <c r="H920" s="4"/>
+      <c r="I920" s="4"/>
+      <c r="J920" s="4"/>
+    </row>
+    <row r="921">
+      <c r="G921" s="4"/>
+      <c r="H921" s="4"/>
+      <c r="I921" s="4"/>
+      <c r="J921" s="4"/>
+    </row>
+    <row r="922">
+      <c r="G922" s="4"/>
+      <c r="H922" s="4"/>
+      <c r="I922" s="4"/>
+      <c r="J922" s="4"/>
+    </row>
+    <row r="923">
+      <c r="G923" s="4"/>
+      <c r="H923" s="4"/>
+      <c r="I923" s="4"/>
+      <c r="J923" s="4"/>
+    </row>
+    <row r="924">
+      <c r="G924" s="4"/>
+      <c r="H924" s="4"/>
+      <c r="I924" s="4"/>
+      <c r="J924" s="4"/>
+    </row>
+    <row r="925">
+      <c r="G925" s="4"/>
+      <c r="H925" s="4"/>
+      <c r="I925" s="4"/>
+      <c r="J925" s="4"/>
+    </row>
+    <row r="926">
+      <c r="G926" s="4"/>
+      <c r="H926" s="4"/>
+      <c r="I926" s="4"/>
+      <c r="J926" s="4"/>
+    </row>
+    <row r="927">
+      <c r="G927" s="4"/>
+      <c r="H927" s="4"/>
+      <c r="I927" s="4"/>
+      <c r="J927" s="4"/>
+    </row>
+    <row r="928">
+      <c r="G928" s="4"/>
+      <c r="H928" s="4"/>
+      <c r="I928" s="4"/>
+      <c r="J928" s="4"/>
+    </row>
+    <row r="929">
+      <c r="G929" s="4"/>
+      <c r="H929" s="4"/>
+      <c r="I929" s="4"/>
+      <c r="J929" s="4"/>
+    </row>
+    <row r="930">
+      <c r="G930" s="4"/>
+      <c r="H930" s="4"/>
+      <c r="I930" s="4"/>
+      <c r="J930" s="4"/>
+    </row>
+    <row r="931">
+      <c r="G931" s="4"/>
+      <c r="H931" s="4"/>
+      <c r="I931" s="4"/>
+      <c r="J931" s="4"/>
+    </row>
+    <row r="932">
+      <c r="G932" s="4"/>
+      <c r="H932" s="4"/>
+      <c r="I932" s="4"/>
+      <c r="J932" s="4"/>
+    </row>
+    <row r="933">
+      <c r="G933" s="4"/>
+      <c r="H933" s="4"/>
+      <c r="I933" s="4"/>
+      <c r="J933" s="4"/>
+    </row>
+    <row r="934">
+      <c r="G934" s="4"/>
+      <c r="H934" s="4"/>
+      <c r="I934" s="4"/>
+      <c r="J934" s="4"/>
+    </row>
+    <row r="935">
+      <c r="G935" s="4"/>
+      <c r="H935" s="4"/>
+      <c r="I935" s="4"/>
+      <c r="J935" s="4"/>
+    </row>
+    <row r="936">
+      <c r="G936" s="4"/>
+      <c r="H936" s="4"/>
+      <c r="I936" s="4"/>
+      <c r="J936" s="4"/>
+    </row>
+    <row r="937">
+      <c r="G937" s="4"/>
+      <c r="H937" s="4"/>
+      <c r="I937" s="4"/>
+      <c r="J937" s="4"/>
+    </row>
+    <row r="938">
+      <c r="G938" s="4"/>
+      <c r="H938" s="4"/>
+      <c r="I938" s="4"/>
+      <c r="J938" s="4"/>
+    </row>
+    <row r="939">
+      <c r="G939" s="4"/>
+      <c r="H939" s="4"/>
+      <c r="I939" s="4"/>
+      <c r="J939" s="4"/>
+    </row>
+    <row r="940">
+      <c r="G940" s="4"/>
+      <c r="H940" s="4"/>
+      <c r="I940" s="4"/>
+      <c r="J940" s="4"/>
+    </row>
+    <row r="941">
+      <c r="G941" s="4"/>
+      <c r="H941" s="4"/>
+      <c r="I941" s="4"/>
+      <c r="J941" s="4"/>
+    </row>
+    <row r="942">
+      <c r="G942" s="4"/>
+      <c r="H942" s="4"/>
+      <c r="I942" s="4"/>
+      <c r="J942" s="4"/>
+    </row>
+    <row r="943">
+      <c r="G943" s="4"/>
+      <c r="H943" s="4"/>
+      <c r="I943" s="4"/>
+      <c r="J943" s="4"/>
+    </row>
+    <row r="944">
+      <c r="G944" s="4"/>
+      <c r="H944" s="4"/>
+      <c r="I944" s="4"/>
+      <c r="J944" s="4"/>
+    </row>
+    <row r="945">
+      <c r="G945" s="4"/>
+      <c r="H945" s="4"/>
+      <c r="I945" s="4"/>
+      <c r="J945" s="4"/>
+    </row>
+    <row r="946">
+      <c r="G946" s="4"/>
+      <c r="H946" s="4"/>
+      <c r="I946" s="4"/>
+      <c r="J946" s="4"/>
+    </row>
+    <row r="947">
+      <c r="G947" s="4"/>
+      <c r="H947" s="4"/>
+      <c r="I947" s="4"/>
+      <c r="J947" s="4"/>
+    </row>
+    <row r="948">
+      <c r="G948" s="4"/>
+      <c r="H948" s="4"/>
+      <c r="I948" s="4"/>
+      <c r="J948" s="4"/>
+    </row>
+    <row r="949">
+      <c r="G949" s="4"/>
+      <c r="H949" s="4"/>
+      <c r="I949" s="4"/>
+      <c r="J949" s="4"/>
+    </row>
+    <row r="950">
+      <c r="G950" s="4"/>
+      <c r="H950" s="4"/>
+      <c r="I950" s="4"/>
+      <c r="J950" s="4"/>
+    </row>
+    <row r="951">
+      <c r="G951" s="4"/>
+      <c r="H951" s="4"/>
+      <c r="I951" s="4"/>
+      <c r="J951" s="4"/>
+    </row>
+    <row r="952">
+      <c r="G952" s="4"/>
+      <c r="H952" s="4"/>
+      <c r="I952" s="4"/>
+      <c r="J952" s="4"/>
+    </row>
+    <row r="953">
+      <c r="G953" s="4"/>
+      <c r="H953" s="4"/>
+      <c r="I953" s="4"/>
+      <c r="J953" s="4"/>
+    </row>
+    <row r="954">
+      <c r="G954" s="4"/>
+      <c r="H954" s="4"/>
+      <c r="I954" s="4"/>
+      <c r="J954" s="4"/>
+    </row>
+    <row r="955">
+      <c r="G955" s="4"/>
+      <c r="H955" s="4"/>
+      <c r="I955" s="4"/>
+      <c r="J955" s="4"/>
+    </row>
+    <row r="956">
+      <c r="G956" s="4"/>
+      <c r="H956" s="4"/>
+      <c r="I956" s="4"/>
+      <c r="J956" s="4"/>
+    </row>
+    <row r="957">
+      <c r="G957" s="4"/>
+      <c r="H957" s="4"/>
+      <c r="I957" s="4"/>
+      <c r="J957" s="4"/>
+    </row>
+    <row r="958">
+      <c r="G958" s="4"/>
+      <c r="H958" s="4"/>
+      <c r="I958" s="4"/>
+      <c r="J958" s="4"/>
+    </row>
+    <row r="959">
+      <c r="G959" s="4"/>
+      <c r="H959" s="4"/>
+      <c r="I959" s="4"/>
+      <c r="J959" s="4"/>
+    </row>
+    <row r="960">
+      <c r="G960" s="4"/>
+      <c r="H960" s="4"/>
+      <c r="I960" s="4"/>
+      <c r="J960" s="4"/>
+    </row>
+    <row r="961">
+      <c r="G961" s="4"/>
+      <c r="H961" s="4"/>
+      <c r="I961" s="4"/>
+      <c r="J961" s="4"/>
+    </row>
+    <row r="962">
+      <c r="G962" s="4"/>
+      <c r="H962" s="4"/>
+      <c r="I962" s="4"/>
+      <c r="J962" s="4"/>
+    </row>
+    <row r="963">
+      <c r="G963" s="4"/>
+      <c r="H963" s="4"/>
+      <c r="I963" s="4"/>
+      <c r="J963" s="4"/>
+    </row>
+    <row r="964">
+      <c r="G964" s="4"/>
+      <c r="H964" s="4"/>
+      <c r="I964" s="4"/>
+      <c r="J964" s="4"/>
+    </row>
+    <row r="965">
+      <c r="G965" s="4"/>
+      <c r="H965" s="4"/>
+      <c r="I965" s="4"/>
+      <c r="J965" s="4"/>
+    </row>
+    <row r="966">
+      <c r="G966" s="4"/>
+      <c r="H966" s="4"/>
+      <c r="I966" s="4"/>
+      <c r="J966" s="4"/>
+    </row>
+    <row r="967">
+      <c r="G967" s="4"/>
+      <c r="H967" s="4"/>
+      <c r="I967" s="4"/>
+      <c r="J967" s="4"/>
+    </row>
+    <row r="968">
+      <c r="G968" s="4"/>
+      <c r="H968" s="4"/>
+      <c r="I968" s="4"/>
+      <c r="J968" s="4"/>
+    </row>
+    <row r="969">
+      <c r="G969" s="4"/>
+      <c r="H969" s="4"/>
+      <c r="I969" s="4"/>
+      <c r="J969" s="4"/>
+    </row>
+    <row r="970">
+      <c r="G970" s="4"/>
+      <c r="H970" s="4"/>
+      <c r="I970" s="4"/>
+      <c r="J970" s="4"/>
+    </row>
+    <row r="971">
+      <c r="G971" s="4"/>
+      <c r="H971" s="4"/>
+      <c r="I971" s="4"/>
+      <c r="J971" s="4"/>
+    </row>
+    <row r="972">
+      <c r="G972" s="4"/>
+      <c r="H972" s="4"/>
+      <c r="I972" s="4"/>
+      <c r="J972" s="4"/>
+    </row>
+    <row r="973">
+      <c r="G973" s="4"/>
+      <c r="H973" s="4"/>
+      <c r="I973" s="4"/>
+      <c r="J973" s="4"/>
+    </row>
+    <row r="974">
+      <c r="G974" s="4"/>
+      <c r="H974" s="4"/>
+      <c r="I974" s="4"/>
+      <c r="J974" s="4"/>
+    </row>
+    <row r="975">
+      <c r="G975" s="4"/>
+      <c r="H975" s="4"/>
+      <c r="I975" s="4"/>
+      <c r="J975" s="4"/>
+    </row>
+    <row r="976">
+      <c r="G976" s="4"/>
+      <c r="H976" s="4"/>
+      <c r="I976" s="4"/>
+      <c r="J976" s="4"/>
+    </row>
+    <row r="977">
+      <c r="G977" s="4"/>
+      <c r="H977" s="4"/>
+      <c r="I977" s="4"/>
+      <c r="J977" s="4"/>
+    </row>
+    <row r="978">
+      <c r="G978" s="4"/>
+      <c r="H978" s="4"/>
+      <c r="I978" s="4"/>
+      <c r="J978" s="4"/>
+    </row>
+    <row r="979">
+      <c r="G979" s="4"/>
+      <c r="H979" s="4"/>
+      <c r="I979" s="4"/>
+      <c r="J979" s="4"/>
+    </row>
+    <row r="980">
+      <c r="G980" s="4"/>
+      <c r="H980" s="4"/>
+      <c r="I980" s="4"/>
+      <c r="J980" s="4"/>
+    </row>
+    <row r="981">
+      <c r="G981" s="4"/>
+      <c r="H981" s="4"/>
+      <c r="I981" s="4"/>
+      <c r="J981" s="4"/>
+    </row>
+    <row r="982">
+      <c r="G982" s="4"/>
+      <c r="H982" s="4"/>
+      <c r="I982" s="4"/>
+      <c r="J982" s="4"/>
+    </row>
+    <row r="983">
+      <c r="G983" s="4"/>
+      <c r="H983" s="4"/>
+      <c r="I983" s="4"/>
+      <c r="J983" s="4"/>
+    </row>
+    <row r="984">
+      <c r="G984" s="4"/>
+      <c r="H984" s="4"/>
+      <c r="I984" s="4"/>
+      <c r="J984" s="4"/>
+    </row>
+    <row r="985">
+      <c r="G985" s="4"/>
+      <c r="H985" s="4"/>
+      <c r="I985" s="4"/>
+      <c r="J985" s="4"/>
+    </row>
+    <row r="986">
+      <c r="G986" s="4"/>
+      <c r="H986" s="4"/>
+      <c r="I986" s="4"/>
+      <c r="J986" s="4"/>
+    </row>
+    <row r="987">
+      <c r="G987" s="4"/>
+      <c r="H987" s="4"/>
+      <c r="I987" s="4"/>
+      <c r="J987" s="4"/>
+    </row>
+    <row r="988">
+      <c r="G988" s="4"/>
+      <c r="H988" s="4"/>
+      <c r="I988" s="4"/>
+      <c r="J988" s="4"/>
+    </row>
+    <row r="989">
+      <c r="G989" s="4"/>
+      <c r="H989" s="4"/>
+      <c r="I989" s="4"/>
+      <c r="J989" s="4"/>
+    </row>
+    <row r="990">
+      <c r="G990" s="4"/>
+      <c r="H990" s="4"/>
+      <c r="I990" s="4"/>
+      <c r="J990" s="4"/>
+    </row>
+    <row r="991">
+      <c r="G991" s="4"/>
+      <c r="H991" s="4"/>
+      <c r="I991" s="4"/>
+      <c r="J991" s="4"/>
+    </row>
+    <row r="992">
+      <c r="G992" s="4"/>
+      <c r="H992" s="4"/>
+      <c r="I992" s="4"/>
+      <c r="J992" s="4"/>
+    </row>
+    <row r="993">
+      <c r="G993" s="4"/>
+      <c r="H993" s="4"/>
+      <c r="I993" s="4"/>
+      <c r="J993" s="4"/>
+    </row>
+    <row r="994">
+      <c r="G994" s="4"/>
+      <c r="H994" s="4"/>
+      <c r="I994" s="4"/>
+      <c r="J994" s="4"/>
+    </row>
+    <row r="995">
+      <c r="G995" s="4"/>
+      <c r="H995" s="4"/>
+      <c r="I995" s="4"/>
+      <c r="J995" s="4"/>
+    </row>
+    <row r="996">
+      <c r="G996" s="4"/>
+      <c r="H996" s="4"/>
+      <c r="I996" s="4"/>
+      <c r="J996" s="4"/>
+    </row>
+    <row r="997">
+      <c r="G997" s="4"/>
+      <c r="H997" s="4"/>
+      <c r="I997" s="4"/>
+      <c r="J997" s="4"/>
+    </row>
+    <row r="998">
+      <c r="G998" s="4"/>
+      <c r="H998" s="4"/>
+      <c r="I998" s="4"/>
+      <c r="J998" s="4"/>
+    </row>
+    <row r="999">
+      <c r="G999" s="4"/>
+      <c r="H999" s="4"/>
+      <c r="I999" s="4"/>
+      <c r="J999" s="4"/>
+    </row>
+    <row r="1000">
+      <c r="G1000" s="4"/>
+      <c r="H1000" s="4"/>
+      <c r="I1000" s="4"/>
+      <c r="J1000" s="4"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/kidase-presentation/samples/Kidase Presentation Template.xlsx
+++ b/kidase-presentation/samples/Kidase Presentation Template.xlsx
@@ -568,7 +568,7 @@
     <t>ዘወትር</t>
   </si>
   <si>
-    <t>{"meta.ethMonthDay": {"$eq": "06-03"}}</t>
+    <t>{"meta.ethMonthDay": {"$eq": "06-04"}}</t>
   </si>
   <si>
     <t>ዘወ2</t>
@@ -598,7 +598,7 @@
     <t>ጴጥሮስ</t>
   </si>
   <si>
-    <t>{"meta.ethMonthDay": {"$eq": "06-04"}}</t>
+    <t>{"meta.ethMonthDay": {"$eq": "06-05"}}</t>
   </si>
   <si>
     <t>ዘወ3</t>
@@ -628,7 +628,7 @@
     <t xml:space="preserve">ይሁዳ </t>
   </si>
   <si>
-    <t>{"meta.ethMonthDay": {"$eq": "06-05"}}</t>
+    <t>{"meta.ethMonthDay": {"$eq": "06-06"}}</t>
   </si>
   <si>
     <t>ተው1</t>
